--- a/lab11/Lab-flu-11.xlsx
+++ b/lab11/Lab-flu-11.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mookga/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6F7B859-A49D-584E-8265-1327FF5299EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFC57A4-6C6D-4B7E-9B2C-B861F0459201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DD930733-D6D9-0543-9D83-32F9058366BC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD930733-D6D9-0543-9D83-32F9058366BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>t(s)</t>
   </si>
@@ -109,21 +109,24 @@
   <si>
     <t>m</t>
   </si>
+  <si>
+    <t>.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="187" formatCode="0.000"/>
+    <numFmt numFmtId="188" formatCode="0.0000"/>
+    <numFmt numFmtId="189" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -148,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -171,71 +174,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -251,6 +207,945 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$4:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-1.6161846340195687</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.5583048643592829</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.4989407377822483</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.4534573365218688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4202164033831899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.3752024210392388</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.3990271043132516</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.5316526695878425</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.5702477199975919</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.6798537138889458</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-3.7078539359785987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.5696339661988064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.4759132025306942</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.370698092575577</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.3099139273065608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.1896640662449549</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.2498774732165998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.5107683552780831</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.6068588742097312</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.8018608621457806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9AAE-4B7C-9458-D7D61603217B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1496952896"/>
+        <c:axId val="1496953376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1496952896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-1.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1496953376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1496953376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1496952896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>763904</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>24766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45489CB5-7B34-386E-835E-4614B3EFCD44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -550,46 +1445,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDF6C7A-DED1-924B-901B-0FA50C1931C6}">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.6328125" customWidth="1"/>
+    <col min="15" max="15" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.81640625" customWidth="1"/>
+    <col min="22" max="22" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8">
         <v>99.1</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -651,7 +1546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -678,7 +1573,7 @@
         <v>2.4200000000000003E-2</v>
       </c>
       <c r="I4" s="4">
-        <f>LOG10(F4*10^-4)</f>
+        <f>LOG10(F4*(10^-4))</f>
         <v>-3.7078539359785987</v>
       </c>
       <c r="J4" s="4">
@@ -686,7 +1581,7 @@
         <v>-1.6161846340195687</v>
       </c>
       <c r="K4" s="4">
-        <f>(F4*(10^-4))/((9.81^(1/2))*(H4^(5/2)))</f>
+        <f>(F4*(10^-4))/((9.81^0.5)*(H4^2.5))</f>
         <v>0.68670964211303187</v>
       </c>
       <c r="M4" s="4">
@@ -729,8 +1624,11 @@
         <f>((S4/10)-(Q4*R4))/((T4/10)-U4)</f>
         <v>2.009393035434571</v>
       </c>
+      <c r="AF4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -757,7 +1655,7 @@
         <v>2.7650000000000004E-2</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" ref="I5:I13" si="4">LOG10(F5*10^-4)</f>
+        <f t="shared" ref="I5:I13" si="4">LOG10(F5*(10^-4))</f>
         <v>-3.5696339661988064</v>
       </c>
       <c r="J5" s="4">
@@ -765,7 +1663,7 @@
         <v>-1.5583048643592829</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" ref="K5:K13" si="6">(F5*(10^-4))/((9.81^(1/2))*(H5^(5/2)))</f>
+        <f t="shared" ref="K5:K13" si="6">(F5*(10^-4))/((9.81^0.5)*(H5^2.5))</f>
         <v>0.6765403301424916</v>
       </c>
       <c r="M5" s="4">
@@ -786,7 +1684,7 @@
       </c>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
@@ -841,7 +1739,7 @@
         <v>5.2101879002684166</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15</v>
       </c>
@@ -897,7 +1795,7 @@
       </c>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15</v>
       </c>
@@ -953,7 +1851,7 @@
       </c>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>21</v>
       </c>
@@ -1009,7 +1907,7 @@
       </c>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18</v>
       </c>
@@ -1065,7 +1963,7 @@
       </c>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -1121,7 +2019,7 @@
       </c>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1177,7 +2075,7 @@
       </c>
       <c r="Q12" s="4"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1233,29 +2131,29 @@
       </c>
       <c r="Q13" s="4"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F15" s="1"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6">
         <v>69.599999999999994</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1317,7 +2215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>21</v>
       </c>
@@ -1396,7 +2294,7 @@
         <v>1.5603004515266661</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
@@ -1451,7 +2349,7 @@
         <v>4.0832853656799069</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24</v>
       </c>
@@ -1506,7 +2404,7 @@
         <v>4.079293516874567</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1561,7 +2459,7 @@
         <v>6.3875334026302415</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12</v>
       </c>
@@ -1616,7 +2514,7 @@
         <v>5.5012239465015194</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1671,7 +2569,7 @@
         <v>5.0861171442861446</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -1726,7 +2624,7 @@
         <v>4.7902562332498526</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
@@ -1781,7 +2679,7 @@
         <v>4.4566454789725425</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
@@ -1836,7 +2734,7 @@
         <v>4.2473756404349006</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>21</v>
       </c>
@@ -1897,5 +2795,6 @@
     <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/lab11/Lab-flu-11.xlsx
+++ b/lab11/Lab-flu-11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFC57A4-6C6D-4B7E-9B2C-B861F0459201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E5D0DD-2515-4A35-99C9-E225ECDAE757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD930733-D6D9-0543-9D83-32F9058366BC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>t(s)</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>logC</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -224,6 +230,48 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>กราฟความสัมพันธ์ระหว่าง</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="th-TH" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>log H </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="th-TH" baseline="0"/>
+              <a:t>และ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>log Q</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -262,6 +310,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>สามเหลี่ยม</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -284,6 +335,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$J$4:$J$13</c:f>
@@ -366,6 +431,133 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9AAE-4B7C-9458-D7D61603217B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>สี่เหลี่ยม</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$19:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-1.3089185078770313</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2911543619518209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.2903061302722081</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.6893066876566394</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.5451551399914898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.4749551929631548</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.423083044034793</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.364013888199167</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.3255981871547182</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2992962828549806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$19:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-3.196689278957495</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.1625075095647426</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.1614927815726821</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.7811567605233689</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.5603052432209612</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.4483197649334953</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.366111523378347</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2673021275878709</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.2041199826559246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.1748486416645854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9AAE-4B7C-9458-D7D61603217B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -402,8 +594,82 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> H</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -448,6 +714,8 @@
         <c:axId val="1496953376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="-3"/>
+          <c:min val="-4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -465,8 +733,77 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log Q</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -514,6 +851,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1111,16 +1479,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>763904</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>24766</xdr:rowOff>
+      <xdr:rowOff>100966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1447,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDF6C7A-DED1-924B-901B-0FA50C1931C6}">
   <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,6 +1913,12 @@
       <c r="V3" t="s">
         <v>23</v>
       </c>
+      <c r="W3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1623,6 +1997,14 @@
       <c r="V4" s="5">
         <f>((S4/10)-(Q4*R4))/((T4/10)-U4)</f>
         <v>2.009393035434571</v>
+      </c>
+      <c r="W4">
+        <f>R4-(V4*Q4)</f>
+        <v>-0.44450037088551442</v>
+      </c>
+      <c r="X4">
+        <f>10^W4</f>
+        <v>0.35933508988472457</v>
       </c>
       <c r="AF4" t="s">
         <v>24</v>
@@ -2143,7 +2525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6">
         <v>69.599999999999994</v>
@@ -2153,7 +2535,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2214,8 +2596,14 @@
       <c r="V18" t="s">
         <v>23</v>
       </c>
+      <c r="W18" t="s">
+        <v>25</v>
+      </c>
+      <c r="X18" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>21</v>
       </c>
@@ -2293,8 +2681,16 @@
         <f>((S19/10)-(Q19*R19))/((T19/10)-U19)</f>
         <v>1.5603004515266661</v>
       </c>
+      <c r="W19">
+        <f>R19-(V19*Q19)</f>
+        <v>-1.1460255371325552</v>
+      </c>
+      <c r="X19">
+        <f>10^W19</f>
+        <v>7.1445431391162648E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
@@ -2349,7 +2745,7 @@
         <v>4.0832853656799069</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24</v>
       </c>
@@ -2404,7 +2800,7 @@
         <v>4.079293516874567</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -2459,7 +2855,7 @@
         <v>6.3875334026302415</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12</v>
       </c>
@@ -2514,7 +2910,7 @@
         <v>5.5012239465015194</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -2569,7 +2965,7 @@
         <v>5.0861171442861446</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -2624,7 +3020,7 @@
         <v>4.7902562332498526</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
@@ -2679,7 +3075,7 @@
         <v>4.4566454789725425</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
@@ -2734,7 +3130,7 @@
         <v>4.2473756404349006</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>21</v>
       </c>

--- a/lab11/Lab-flu-11.xlsx
+++ b/lab11/Lab-flu-11.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E5D0DD-2515-4A35-99C9-E225ECDAE757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C99662-43F9-4E4F-8F47-21F07062424C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD930733-D6D9-0543-9D83-32F9058366BC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD930733-D6D9-0543-9D83-32F9058366BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>t(s)</t>
   </si>
@@ -118,6 +119,45 @@
   <si>
     <t>C</t>
   </si>
+  <si>
+    <t>Q/(g^1/2)(H^3/2)</t>
+  </si>
+  <si>
+    <t>Hmm</t>
+  </si>
+  <si>
+    <t>Q/บลาๆ</t>
+  </si>
+  <si>
+    <t>เฉลี่ย</t>
+  </si>
+  <si>
+    <t>ฝายรูปสามเหลี่ยม</t>
+  </si>
+  <si>
+    <t>ฝายรูปสี่เหลี่ยม</t>
+  </si>
+  <si>
+    <t>Q=Cd8/15บลาๆ</t>
+  </si>
+  <si>
+    <t>Q/g1/2H5/2</t>
+  </si>
+  <si>
+    <t>Q=Cd2/3บลาๆๆ</t>
+  </si>
+  <si>
+    <t>Q/g1/2H3/2</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>Q=0.7542Cd(g^0.5)(H^2.5)</t>
+  </si>
+  <si>
+    <t>Q = 0.028756Cd(g^0.5)(H^1.5)</t>
+  </si>
 </sst>
 </file>
 
@@ -137,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +193,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -194,10 +252,21 @@
     <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,7 +988,1001 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>สามเหลี่ยม</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>123.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.68670964211303187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6765403301424916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59649133364235474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58493922455812764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55563881631816059</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56559750194964142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56474940739429236</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66455176378540881</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6651596897834382</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79788246162732246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B043-453D-81BE-C1F87B0D8763}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>สี่เหลี่ยม</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>118.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>112.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>116.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>119.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$19:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.8657522720766123E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.898407887737948E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8972821034215496E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8070441659229126E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8263876553642665E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.854720707656422E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8736071668753306E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9181572207855317E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9428657591532728E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8978473549885907E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B043-453D-81BE-C1F87B0D8763}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1589868592"/>
+        <c:axId val="1589869072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1589868592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="170"/>
+          <c:min val="70"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>H(mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1589869072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1589869072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1589868592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>test!$D$6:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test!$E$6:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.52900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6389999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA68-422A-A617-9DCB7124FEB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1586253520"/>
+        <c:axId val="1586255920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1586253520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1586255920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1586255920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1586253520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1475,20 +2538,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>41909</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>100966</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>899160</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127635</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1496,6 +3591,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45489CB5-7B34-386E-835E-4614B3EFCD44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>815340</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4524AA9-70F0-A5F6-E441-B9A0313034FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{382F1202-82AB-2CCE-25BD-EDBDAD8ACDC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,10 +3985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDF6C7A-DED1-924B-901B-0FA50C1931C6}">
-  <dimension ref="A1:AF28"/>
+  <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,7 +3998,8 @@
     <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16.36328125" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.6328125" customWidth="1"/>
     <col min="15" max="15" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.6328125" bestFit="1" customWidth="1"/>
@@ -1835,22 +4008,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7">
         <v>99.1</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2045,23 +4218,23 @@
         <v>-1.5583048643592829</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" ref="K5:K13" si="6">(F5*(10^-4))/((9.81^0.5)*(H5^2.5))</f>
+        <f>(F5*(10^-4))/((9.81^0.5)*(H5^2.5))</f>
         <v>0.6765403301424916</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" ref="M5:M13" si="7">J5</f>
+        <f t="shared" ref="M5:M13" si="6">J5</f>
         <v>-1.5583048643592829</v>
       </c>
       <c r="N5" s="4">
-        <f t="shared" ref="N5:N13" si="8">I5</f>
+        <f t="shared" ref="N5:N13" si="7">I5</f>
         <v>-3.5696339661988064</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" ref="O5:O12" si="9">M5^2</f>
+        <f t="shared" ref="O5:O12" si="8">M5^2</f>
         <v>2.4283140502858034</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" ref="P5:P13" si="10">M5*N5</f>
+        <f t="shared" ref="P5:P13" si="9">M5*N5</f>
         <v>5.5625779735097201</v>
       </c>
       <c r="Q5" s="4"/>
@@ -2101,23 +4274,23 @@
         <v>-1.4989407377822483</v>
       </c>
       <c r="K6" s="4">
+        <f t="shared" ref="K5:K13" si="10">(F6*(10^-4))/((9.81^0.5)*(H6^2.5))</f>
+        <v>0.59649133364235474</v>
+      </c>
+      <c r="M6" s="4">
         <f t="shared" si="6"/>
-        <v>0.59649133364235474</v>
-      </c>
-      <c r="M6" s="4">
+        <v>-1.4989407377822483</v>
+      </c>
+      <c r="N6" s="4">
         <f t="shared" si="7"/>
-        <v>-1.4989407377822483</v>
-      </c>
-      <c r="N6" s="4">
+        <v>-3.4759132025306942</v>
+      </c>
+      <c r="O6" s="4">
         <f t="shared" si="8"/>
-        <v>-3.4759132025306942</v>
-      </c>
-      <c r="O6" s="4">
+        <v>2.246823335383191</v>
+      </c>
+      <c r="P6" s="4">
         <f t="shared" si="9"/>
-        <v>2.246823335383191</v>
-      </c>
-      <c r="P6" s="4">
-        <f t="shared" si="10"/>
         <v>5.2101879002684166</v>
       </c>
     </row>
@@ -2156,23 +4329,23 @@
         <v>-1.4534573365218688</v>
       </c>
       <c r="K7" s="4">
+        <f t="shared" si="10"/>
+        <v>0.58493922455812764</v>
+      </c>
+      <c r="M7" s="4">
         <f t="shared" si="6"/>
-        <v>0.58493922455812764</v>
-      </c>
-      <c r="M7" s="4">
+        <v>-1.4534573365218688</v>
+      </c>
+      <c r="N7" s="4">
         <f t="shared" si="7"/>
-        <v>-1.4534573365218688</v>
-      </c>
-      <c r="N7" s="4">
+        <v>-3.370698092575577</v>
+      </c>
+      <c r="O7" s="4">
         <f t="shared" si="8"/>
-        <v>-3.370698092575577</v>
-      </c>
-      <c r="O7" s="4">
+        <v>2.1125382290892452</v>
+      </c>
+      <c r="P7" s="4">
         <f t="shared" si="9"/>
-        <v>2.1125382290892452</v>
-      </c>
-      <c r="P7" s="4">
-        <f t="shared" si="10"/>
         <v>4.8991658718542412</v>
       </c>
       <c r="Q7" s="4"/>
@@ -2212,23 +4385,23 @@
         <v>-1.4202164033831899</v>
       </c>
       <c r="K8" s="4">
+        <f t="shared" si="10"/>
+        <v>0.55563881631816059</v>
+      </c>
+      <c r="M8" s="4">
         <f t="shared" si="6"/>
-        <v>0.55563881631816059</v>
-      </c>
-      <c r="M8" s="4">
+        <v>-1.4202164033831899</v>
+      </c>
+      <c r="N8" s="4">
         <f t="shared" si="7"/>
-        <v>-1.4202164033831899</v>
-      </c>
-      <c r="N8" s="4">
+        <v>-3.3099139273065608</v>
+      </c>
+      <c r="O8" s="4">
         <f t="shared" si="8"/>
-        <v>-3.3099139273065608</v>
-      </c>
-      <c r="O8" s="4">
+        <v>2.0170146324386837</v>
+      </c>
+      <c r="P8" s="4">
         <f t="shared" si="9"/>
-        <v>2.0170146324386837</v>
-      </c>
-      <c r="P8" s="4">
-        <f t="shared" si="10"/>
         <v>4.700794053347253</v>
       </c>
       <c r="Q8" s="4"/>
@@ -2268,23 +4441,23 @@
         <v>-1.3752024210392388</v>
       </c>
       <c r="K9" s="4">
+        <f t="shared" si="10"/>
+        <v>0.56559750194964142</v>
+      </c>
+      <c r="M9" s="4">
         <f t="shared" si="6"/>
-        <v>0.56559750194964142</v>
-      </c>
-      <c r="M9" s="4">
+        <v>-1.3752024210392388</v>
+      </c>
+      <c r="N9" s="4">
         <f t="shared" si="7"/>
-        <v>-1.3752024210392388</v>
-      </c>
-      <c r="N9" s="4">
+        <v>-3.1896640662449549</v>
+      </c>
+      <c r="O9" s="4">
         <f t="shared" si="8"/>
-        <v>-3.1896640662449549</v>
-      </c>
-      <c r="O9" s="4">
+        <v>1.8911816988321839</v>
+      </c>
+      <c r="P9" s="4">
         <f t="shared" si="9"/>
-        <v>1.8911816988321839</v>
-      </c>
-      <c r="P9" s="4">
-        <f t="shared" si="10"/>
         <v>4.3864337462019254</v>
       </c>
       <c r="Q9" s="4"/>
@@ -2324,23 +4497,23 @@
         <v>-1.3990271043132516</v>
       </c>
       <c r="K10" s="4">
+        <f t="shared" si="10"/>
+        <v>0.56474940739429236</v>
+      </c>
+      <c r="M10" s="4">
         <f t="shared" si="6"/>
-        <v>0.56474940739429236</v>
-      </c>
-      <c r="M10" s="4">
+        <v>-1.3990271043132516</v>
+      </c>
+      <c r="N10" s="4">
         <f t="shared" si="7"/>
-        <v>-1.3990271043132516</v>
-      </c>
-      <c r="N10" s="4">
+        <v>-3.2498774732165998</v>
+      </c>
+      <c r="O10" s="4">
         <f t="shared" si="8"/>
-        <v>-3.2498774732165998</v>
-      </c>
-      <c r="O10" s="4">
+        <v>1.9572768386031218</v>
+      </c>
+      <c r="P10" s="4">
         <f t="shared" si="9"/>
-        <v>1.9572768386031218</v>
-      </c>
-      <c r="P10" s="4">
-        <f t="shared" si="10"/>
         <v>4.5466666707270864</v>
       </c>
       <c r="Q10" s="4"/>
@@ -2380,23 +4553,23 @@
         <v>-1.5316526695878425</v>
       </c>
       <c r="K11" s="4">
+        <f t="shared" si="10"/>
+        <v>0.66455176378540881</v>
+      </c>
+      <c r="M11" s="4">
         <f t="shared" si="6"/>
-        <v>0.66455176378540881</v>
-      </c>
-      <c r="M11" s="4">
+        <v>-1.5316526695878425</v>
+      </c>
+      <c r="N11" s="4">
         <f t="shared" si="7"/>
-        <v>-1.5316526695878425</v>
-      </c>
-      <c r="N11" s="4">
+        <v>-3.5107683552780831</v>
+      </c>
+      <c r="O11" s="4">
         <f t="shared" si="8"/>
-        <v>-3.5107683552780831</v>
-      </c>
-      <c r="O11" s="4">
+        <v>2.3459599002555649</v>
+      </c>
+      <c r="P11" s="4">
         <f t="shared" si="9"/>
-        <v>2.3459599002555649</v>
-      </c>
-      <c r="P11" s="4">
-        <f t="shared" si="10"/>
         <v>5.3772777236661948</v>
       </c>
       <c r="Q11" s="4"/>
@@ -2436,23 +4609,23 @@
         <v>-1.5702477199975919</v>
       </c>
       <c r="K12" s="4">
+        <f t="shared" si="10"/>
+        <v>0.6651596897834382</v>
+      </c>
+      <c r="M12" s="4">
         <f t="shared" si="6"/>
-        <v>0.6651596897834382</v>
-      </c>
-      <c r="M12" s="4">
+        <v>-1.5702477199975919</v>
+      </c>
+      <c r="N12" s="4">
         <f t="shared" si="7"/>
-        <v>-1.5702477199975919</v>
-      </c>
-      <c r="N12" s="4">
+        <v>-3.6068588742097312</v>
+      </c>
+      <c r="O12" s="4">
         <f t="shared" si="8"/>
-        <v>-3.6068588742097312</v>
-      </c>
-      <c r="O12" s="4">
+        <v>2.465677902157636</v>
+      </c>
+      <c r="P12" s="4">
         <f t="shared" si="9"/>
-        <v>2.465677902157636</v>
-      </c>
-      <c r="P12" s="4">
-        <f t="shared" si="10"/>
         <v>5.6636619235809116</v>
       </c>
       <c r="Q12" s="4"/>
@@ -2492,15 +4665,15 @@
         <v>-1.6798537138889458</v>
       </c>
       <c r="K13" s="4">
+        <f t="shared" si="10"/>
+        <v>0.79788246162732246</v>
+      </c>
+      <c r="M13" s="4">
         <f t="shared" si="6"/>
-        <v>0.79788246162732246</v>
-      </c>
-      <c r="M13" s="4">
+        <v>-1.6798537138889458</v>
+      </c>
+      <c r="N13" s="4">
         <f t="shared" si="7"/>
-        <v>-1.6798537138889458</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="8"/>
         <v>-3.8018608621457806</v>
       </c>
       <c r="O13" s="4">
@@ -2508,10 +4681,19 @@
         <v>2.8219085000664843</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>6.3865700889646186</v>
       </c>
       <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="4">
+        <f>AVERAGE(K4:K13)</f>
+        <v>0.63582601713142695</v>
+      </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F15" s="1"/>
@@ -2530,10 +4712,10 @@
       <c r="B17" s="6">
         <v>69.599999999999994</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2564,7 +4746,7 @@
         <v>11</v>
       </c>
       <c r="K18" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M18" t="s">
         <v>14</v>
@@ -2638,8 +4820,8 @@
         <v>-1.3089185078770313</v>
       </c>
       <c r="K19" s="4">
-        <f>(F19*(10^-4))/((9.81^(1/2))*(H19^(5/2)))</f>
-        <v>0.3799902794453387</v>
+        <f>(F19*(10^-4))/((9.81^(1/2))*(H19^(3/2)))</f>
+        <v>1.8657522720766123E-2</v>
       </c>
       <c r="M19" s="4">
         <f>J19</f>
@@ -2725,8 +4907,8 @@
         <v>-1.2911543619518209</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" ref="K20:K28" si="17">(F20*(10^-4))/((9.81^(1/2))*(H20^(5/2)))</f>
-        <v>0.37114523709441816</v>
+        <f t="shared" ref="K20:K28" si="17">(F20*(10^-4))/((9.81^(1/2))*(H20^(3/2)))</f>
+        <v>1.898407887737948E-2</v>
       </c>
       <c r="M20" s="4">
         <f t="shared" ref="M20:M28" si="18">J20</f>
@@ -2781,7 +4963,7 @@
       </c>
       <c r="K21" s="4">
         <f t="shared" si="17"/>
-        <v>0.37020138603347297</v>
+        <v>1.8972821034215496E-2</v>
       </c>
       <c r="M21" s="4">
         <f t="shared" si="18"/>
@@ -2836,7 +5018,7 @@
       </c>
       <c r="K22" s="4">
         <f t="shared" si="17"/>
-        <v>0.88364017893541003</v>
+        <v>1.8070441659229126E-2</v>
       </c>
       <c r="M22" s="4">
         <f t="shared" si="18"/>
@@ -2891,7 +5073,7 @@
       </c>
       <c r="K23" s="4">
         <f t="shared" si="17"/>
-        <v>0.64083777381202367</v>
+        <v>1.8263876553642665E-2</v>
       </c>
       <c r="M23" s="4">
         <f t="shared" si="18"/>
@@ -2946,7 +5128,7 @@
       </c>
       <c r="K24" s="4">
         <f t="shared" si="17"/>
-        <v>0.55364797243475306</v>
+        <v>1.854720707656422E-2</v>
       </c>
       <c r="M24" s="4">
         <f t="shared" si="18"/>
@@ -3001,7 +5183,7 @@
       </c>
       <c r="K25" s="4">
         <f t="shared" si="17"/>
-        <v>0.49631977930472293</v>
+        <v>1.8736071668753306E-2</v>
       </c>
       <c r="M25" s="4">
         <f t="shared" si="18"/>
@@ -3056,7 +5238,7 @@
       </c>
       <c r="K26" s="4">
         <f t="shared" si="17"/>
-        <v>0.44350455971919828</v>
+        <v>1.9181572207855317E-2</v>
       </c>
       <c r="M26" s="4">
         <f t="shared" si="18"/>
@@ -3111,7 +5293,7 @@
       </c>
       <c r="K27" s="4">
         <f t="shared" si="17"/>
-        <v>0.41118852045571902</v>
+        <v>1.9428657591532728E-2</v>
       </c>
       <c r="M27" s="4">
         <f t="shared" si="18"/>
@@ -3166,7 +5348,7 @@
       </c>
       <c r="K28" s="4">
         <f t="shared" si="17"/>
-        <v>0.37805724202959945</v>
+        <v>1.8978473549885907E-2</v>
       </c>
       <c r="M28" s="4">
         <f t="shared" si="18"/>
@@ -3185,12 +5367,266 @@
         <v>4.1250690387419802</v>
       </c>
     </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="4">
+        <f>AVERAGE(K19:K28)</f>
+        <v>1.8782072293982439E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G57" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G58" s="10"/>
+      <c r="H58" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58" s="11">
+        <f>K14</f>
+        <v>0.63582601713142695</v>
+      </c>
+      <c r="J58" s="11">
+        <f>0.636/0.7542</f>
+        <v>0.84327764518695314</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G59" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G60" s="10"/>
+      <c r="H60" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I60" s="11">
+        <f>K29</f>
+        <v>1.8782072293982439E-2</v>
+      </c>
+      <c r="J60" s="11">
+        <f>I60/0.028756</f>
+        <v>0.65315316087016406</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5760CFBC-F7CE-47EF-84FD-3DFCEA44E20B}">
+  <dimension ref="C4:J39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>42.4</v>
+      </c>
+      <c r="E6">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>38.15</v>
+      </c>
+      <c r="E7">
+        <v>0.81599999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>35.65</v>
+      </c>
+      <c r="E8">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>30.35</v>
+      </c>
+      <c r="E9">
+        <v>0.85799999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>25.7</v>
+      </c>
+      <c r="E10">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>16.05</v>
+      </c>
+      <c r="E12">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>12.9</v>
+      </c>
+      <c r="E13">
+        <v>2.2080000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="E14">
+        <v>2.6389999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>6.1</v>
+      </c>
+      <c r="E15">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <f>AVERAGE(D6:D15)</f>
+        <v>23.584999999999997</v>
+      </c>
+      <c r="E16">
+        <f>AVERAGE(E6:E15)</f>
+        <v>1.0908000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f>1.09/0.7542</f>
+        <v>1.4452399893927341</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>0.45500000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>0.44700000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>0.439</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f>AVERAGE(F28:F37)</f>
+        <v>0.45339999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/lab11/Lab-flu-11.xlsx
+++ b/lab11/Lab-flu-11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C99662-43F9-4E4F-8F47-21F07062424C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161B9FA8-196C-4FAF-988A-512198614D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD930733-D6D9-0543-9D83-32F9058366BC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>t(s)</t>
   </si>
@@ -158,6 +158,9 @@
   <si>
     <t>Q = 0.028756Cd(g^0.5)(H^1.5)</t>
   </si>
+  <si>
+    <t>หน้า11-9</t>
+  </si>
 </sst>
 </file>
 
@@ -177,24 +180,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -214,8 +205,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -238,35 +277,249 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="187" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +675,7 @@
             <c:numRef>
               <c:f>Sheet1!$J$4:$J$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>-1.6161846340195687</c:v>
@@ -461,7 +714,7 @@
             <c:numRef>
               <c:f>Sheet1!$I$4:$I$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>-3.7078539359785987</c:v>
@@ -549,7 +802,7 @@
             <c:numRef>
               <c:f>Sheet1!$J$19:$J$28</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>-1.3089185078770313</c:v>
@@ -588,7 +841,7 @@
             <c:numRef>
               <c:f>Sheet1!$I$19:$I$28</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>-3.196689278957495</c:v>
@@ -737,7 +990,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -871,7 +1124,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1079,7 +1332,7 @@
             <c:numRef>
               <c:f>Sheet1!$K$4:$K$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.68670964211303187</c:v>
@@ -1192,7 +1445,7 @@
             <c:numRef>
               <c:f>Sheet1!$K$19:$K$28</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.8657522720766123E-2</c:v>
@@ -1445,7 +1698,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3574,16 +3827,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>41909</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>34289</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>70486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>899160</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>188595</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3611,15 +3864,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>815340</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>716280</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3985,197 +4238,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDF6C7A-DED1-924B-901B-0FA50C1931C6}">
-  <dimension ref="A1:AF60"/>
+  <dimension ref="A1:AF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="K28" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" customWidth="1"/>
-    <col min="8" max="8" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.6328125" customWidth="1"/>
     <col min="9" max="10" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.6328125" customWidth="1"/>
-    <col min="15" max="15" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.54296875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.90625" customWidth="1"/>
     <col min="21" max="21" width="9.81640625" customWidth="1"/>
     <col min="22" max="22" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38">
         <v>99.1</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <v>30.62</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="7">
         <v>123.3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <f>C4/1000</f>
         <v>0.12329999999999999</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E4" s="21"/>
+      <c r="F4" s="2">
         <f>(A4/B4)*10</f>
         <v>1.9595035924232527</v>
       </c>
-      <c r="G4" s="2">
-        <f>C4-99.1</f>
+      <c r="G4" s="7">
+        <f>C4-B$2</f>
         <v>24.200000000000003</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <f>G4/1000</f>
         <v>2.4200000000000003E-2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="2">
         <f>LOG10(F4*(10^-4))</f>
         <v>-3.7078539359785987</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="2">
         <f>LOG10(H4)</f>
         <v>-1.6161846340195687</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="2">
         <f>(F4*(10^-4))/((9.81^0.5)*(H4^2.5))</f>
         <v>0.68670964211303187</v>
       </c>
-      <c r="M4" s="4">
+      <c r="L4" s="21"/>
+      <c r="M4" s="2">
         <f>J4</f>
         <v>-1.6161846340195687</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="2">
         <f>I4</f>
         <v>-3.7078539359785987</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="2">
         <f>M4^2</f>
         <v>2.6120527712409674</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="2">
         <f>M4*N4</f>
         <v>5.992576556517589</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="2">
         <f>(SUM(M4:M13))/10</f>
         <v>-1.5103087604893028</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="2">
         <f>(SUM(N4:N13))/10</f>
         <v>-3.4793042755685391</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="2">
         <f>SUM(P4:P13)</f>
         <v>52.725912508637954</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="2">
         <f>SUM(O4:O13)</f>
         <v>22.898747858352884</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="2">
         <f>Q4^2</f>
         <v>2.2810325520107342</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="8">
         <f>((S4/10)-(Q4*R4))/((T4/10)-U4)</f>
         <v>2.009393035434571</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="8">
         <f>R4-(V4*Q4)</f>
         <v>-0.44450037088551442</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="8">
         <f>10^W4</f>
         <v>0.35933508988472457</v>
       </c>
@@ -4184,1260 +4484,1579 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="7">
         <v>33.409999999999997</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>126.75</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <f t="shared" ref="D5:D13" si="0">C5/1000</f>
         <v>0.12675</v>
       </c>
-      <c r="F5" s="1">
+      <c r="E5" s="21"/>
+      <c r="F5" s="2">
         <f t="shared" ref="F5:F13" si="1">(A5/B5)*10</f>
         <v>2.6938042502244839</v>
       </c>
-      <c r="G5" s="2">
-        <f t="shared" ref="G5:G13" si="2">C5-99.1</f>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G13" si="2">C5-B$2</f>
         <v>27.650000000000006</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <f t="shared" ref="H5:H13" si="3">G5/1000</f>
         <v>2.7650000000000004E-2</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <f t="shared" ref="I5:I13" si="4">LOG10(F5*(10^-4))</f>
         <v>-3.5696339661988064</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <f t="shared" ref="J5:J13" si="5">LOG10(H5)</f>
         <v>-1.5583048643592829</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="2">
         <f>(F5*(10^-4))/((9.81^0.5)*(H5^2.5))</f>
         <v>0.6765403301424916</v>
       </c>
-      <c r="M5" s="4">
+      <c r="L5" s="21"/>
+      <c r="M5" s="2">
         <f t="shared" ref="M5:M13" si="6">J5</f>
         <v>-1.5583048643592829</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="2">
         <f t="shared" ref="N5:N13" si="7">I5</f>
         <v>-3.5696339661988064</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="2">
         <f t="shared" ref="O5:O12" si="8">M5^2</f>
         <v>2.4283140502858034</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="2">
         <f t="shared" ref="P5:P13" si="9">M5*N5</f>
         <v>5.5625779735097201</v>
       </c>
-      <c r="Q5" s="4"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>12</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="7">
         <v>35.9</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>130.80000000000001</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>0.1308</v>
       </c>
-      <c r="F6" s="1">
+      <c r="E6" s="21"/>
+      <c r="F6" s="2">
         <f t="shared" si="1"/>
         <v>3.3426183844011144</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="7">
         <f t="shared" si="2"/>
         <v>31.700000000000017</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <f t="shared" si="3"/>
         <v>3.170000000000002E-2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <f t="shared" si="4"/>
         <v>-3.4759132025306942</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="2">
         <f t="shared" si="5"/>
         <v>-1.4989407377822483</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="2">
         <f t="shared" ref="K5:K13" si="10">(F6*(10^-4))/((9.81^0.5)*(H6^2.5))</f>
         <v>0.59649133364235474</v>
       </c>
-      <c r="M6" s="4">
+      <c r="L6" s="21"/>
+      <c r="M6" s="2">
         <f t="shared" si="6"/>
         <v>-1.4989407377822483</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="2">
         <f t="shared" si="7"/>
         <v>-3.4759132025306942</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="2">
         <f t="shared" si="8"/>
         <v>2.246823335383191</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="2">
         <f t="shared" si="9"/>
         <v>5.2101879002684166</v>
       </c>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>15</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="7">
         <v>35.22</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>134.30000000000001</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>0.1343</v>
       </c>
-      <c r="F7" s="1">
+      <c r="E7" s="21"/>
+      <c r="F7" s="2">
         <f t="shared" si="1"/>
         <v>4.2589437819420786</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="7">
         <f t="shared" si="2"/>
         <v>35.200000000000017</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <f t="shared" si="3"/>
         <v>3.5200000000000016E-2</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
         <f t="shared" si="4"/>
         <v>-3.370698092575577</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <f t="shared" si="5"/>
         <v>-1.4534573365218688</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="2">
         <f t="shared" si="10"/>
         <v>0.58493922455812764</v>
       </c>
-      <c r="M7" s="4">
+      <c r="L7" s="21"/>
+      <c r="M7" s="2">
         <f t="shared" si="6"/>
         <v>-1.4534573365218688</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="2">
         <f t="shared" si="7"/>
         <v>-3.370698092575577</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="2">
         <f t="shared" si="8"/>
         <v>2.1125382290892452</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="2">
         <f t="shared" si="9"/>
         <v>4.8991658718542412</v>
       </c>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>15</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="7">
         <v>30.62</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="7">
         <v>137.1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>0.1371</v>
       </c>
-      <c r="F8" s="1">
+      <c r="E8" s="21"/>
+      <c r="F8" s="2">
         <f t="shared" si="1"/>
         <v>4.8987589810581316</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="7">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <f t="shared" si="3"/>
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
         <f t="shared" si="4"/>
         <v>-3.3099139273065608</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="2">
         <f t="shared" si="5"/>
         <v>-1.4202164033831899</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="2">
         <f t="shared" si="10"/>
         <v>0.55563881631816059</v>
       </c>
-      <c r="M8" s="4">
+      <c r="L8" s="21"/>
+      <c r="M8" s="2">
         <f t="shared" si="6"/>
         <v>-1.4202164033831899</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="2">
         <f t="shared" si="7"/>
         <v>-3.3099139273065608</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="2">
         <f t="shared" si="8"/>
         <v>2.0170146324386837</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="2">
         <f t="shared" si="9"/>
         <v>4.700794053347253</v>
       </c>
-      <c r="Q8" s="4"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>21</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="7">
         <v>32.5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="7">
         <v>141.25</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>0.14124999999999999</v>
       </c>
-      <c r="F9" s="1">
+      <c r="E9" s="21"/>
+      <c r="F9" s="2">
         <f t="shared" si="1"/>
         <v>6.4615384615384617</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="7">
         <f t="shared" si="2"/>
         <v>42.150000000000006</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="2">
         <f t="shared" si="3"/>
         <v>4.2150000000000007E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="2">
         <f t="shared" si="4"/>
         <v>-3.1896640662449549</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="2">
         <f t="shared" si="5"/>
         <v>-1.3752024210392388</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="2">
         <f t="shared" si="10"/>
         <v>0.56559750194964142</v>
       </c>
-      <c r="M9" s="4">
+      <c r="L9" s="21"/>
+      <c r="M9" s="2">
         <f t="shared" si="6"/>
         <v>-1.3752024210392388</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="2">
         <f t="shared" si="7"/>
         <v>-3.1896640662449549</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="2">
         <f t="shared" si="8"/>
         <v>1.8911816988321839</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="2">
         <f t="shared" si="9"/>
         <v>4.3864337462019254</v>
       </c>
-      <c r="Q9" s="4"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>18</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="7">
         <v>32</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="7">
         <v>139</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>0.13900000000000001</v>
       </c>
-      <c r="F10" s="1">
+      <c r="E10" s="21"/>
+      <c r="F10" s="2">
         <f t="shared" si="1"/>
         <v>5.625</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="7">
         <f t="shared" si="2"/>
         <v>39.900000000000006</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="2">
         <f t="shared" si="3"/>
         <v>3.9900000000000005E-2</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="2">
         <f t="shared" si="4"/>
         <v>-3.2498774732165998</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="2">
         <f t="shared" si="5"/>
         <v>-1.3990271043132516</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="2">
         <f t="shared" si="10"/>
         <v>0.56474940739429236</v>
       </c>
-      <c r="M10" s="4">
+      <c r="L10" s="21"/>
+      <c r="M10" s="2">
         <f t="shared" si="6"/>
         <v>-1.3990271043132516</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="2">
         <f t="shared" si="7"/>
         <v>-3.2498774732165998</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="2">
         <f t="shared" si="8"/>
         <v>1.9572768386031218</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="2">
         <f t="shared" si="9"/>
         <v>4.5466666707270864</v>
       </c>
-      <c r="Q10" s="4"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="7">
         <v>38.9</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="7">
         <v>128.5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>0.1285</v>
       </c>
-      <c r="F11" s="1">
+      <c r="E11" s="21"/>
+      <c r="F11" s="2">
         <f t="shared" si="1"/>
         <v>3.0848329048843186</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="7">
         <f t="shared" si="2"/>
         <v>29.400000000000006</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="2">
         <f t="shared" si="3"/>
         <v>2.9400000000000006E-2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <f t="shared" si="4"/>
         <v>-3.5107683552780831</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="2">
         <f t="shared" si="5"/>
         <v>-1.5316526695878425</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="2">
         <f t="shared" si="10"/>
         <v>0.66455176378540881</v>
       </c>
-      <c r="M11" s="4">
+      <c r="L11" s="21"/>
+      <c r="M11" s="2">
         <f t="shared" si="6"/>
         <v>-1.5316526695878425</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="2">
         <f t="shared" si="7"/>
         <v>-3.5107683552780831</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="2">
         <f t="shared" si="8"/>
         <v>2.3459599002555649</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="2">
         <f t="shared" si="9"/>
         <v>5.3772777236661948</v>
       </c>
-      <c r="Q11" s="4"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="7">
         <v>36.4</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="7">
         <v>126</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>0.126</v>
       </c>
-      <c r="F12" s="1">
+      <c r="E12" s="21"/>
+      <c r="F12" s="2">
         <f t="shared" si="1"/>
         <v>2.4725274725274726</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="7">
         <f t="shared" si="2"/>
         <v>26.900000000000006</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="2">
         <f t="shared" si="3"/>
         <v>2.6900000000000007E-2</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="2">
         <f t="shared" si="4"/>
         <v>-3.6068588742097312</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="2">
         <f t="shared" si="5"/>
         <v>-1.5702477199975919</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="2">
         <f t="shared" si="10"/>
         <v>0.6651596897834382</v>
       </c>
-      <c r="M12" s="4">
+      <c r="L12" s="21"/>
+      <c r="M12" s="2">
         <f t="shared" si="6"/>
         <v>-1.5702477199975919</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="2">
         <f t="shared" si="7"/>
         <v>-3.6068588742097312</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="2">
         <f t="shared" si="8"/>
         <v>2.465677902157636</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="2">
         <f t="shared" si="9"/>
         <v>5.6636619235809116</v>
       </c>
-      <c r="Q12" s="4"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="7">
         <v>38.020000000000003</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="7">
         <v>120</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="F13" s="1">
+      <c r="E13" s="22"/>
+      <c r="F13" s="2">
         <f t="shared" si="1"/>
         <v>1.5781167806417673</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="7">
         <f t="shared" si="2"/>
         <v>20.900000000000006</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="2">
         <f t="shared" si="3"/>
         <v>2.0900000000000005E-2</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="2">
         <f t="shared" si="4"/>
         <v>-3.8018608621457806</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="2">
         <f t="shared" si="5"/>
         <v>-1.6798537138889458</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="2">
         <f t="shared" si="10"/>
         <v>0.79788246162732246</v>
       </c>
-      <c r="M13" s="4">
+      <c r="L13" s="22"/>
+      <c r="M13" s="2">
         <f t="shared" si="6"/>
         <v>-1.6798537138889458</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="2">
         <f t="shared" si="7"/>
         <v>-3.8018608621457806</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="2">
         <f>M13^2</f>
         <v>2.8219085000664843</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="2">
         <f t="shared" si="9"/>
         <v>6.3865700889646186</v>
       </c>
-      <c r="Q13" s="4"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="J14" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="2">
         <f>AVERAGE(K4:K13)</f>
         <v>0.63582601713142695</v>
       </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="F15" s="1"/>
-      <c r="H15" s="4"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="40" t="s">
         <v>2</v>
       </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42">
         <v>69.599999999999994</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="27"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T18" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="U18" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="V18" t="s">
+      <c r="V18" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="W18" t="s">
+      <c r="W18" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="X18" t="s">
+      <c r="X18" s="29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>21</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="7">
         <v>33.03</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="7">
         <v>118.7</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <f>C19/1000</f>
         <v>0.1187</v>
       </c>
-      <c r="F19" s="1">
+      <c r="E19" s="21"/>
+      <c r="F19" s="2">
         <f>(A19/B19)*10</f>
         <v>6.3578564940962758</v>
       </c>
-      <c r="G19" s="2">
-        <f>C19-69.6</f>
+      <c r="G19" s="7">
+        <f>C19-B$17</f>
         <v>49.100000000000009</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="2">
         <f>G19/1000</f>
         <v>4.9100000000000012E-2</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="2">
         <f>LOG10(F19*10^-4)</f>
         <v>-3.196689278957495</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="2">
         <f>LOG10(H19)</f>
         <v>-1.3089185078770313</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="2">
         <f>(F19*(10^-4))/((9.81^(1/2))*(H19^(3/2)))</f>
         <v>1.8657522720766123E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="L19" s="21"/>
+      <c r="M19" s="2">
         <f>J19</f>
         <v>-1.3089185078770313</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="2">
         <f>I19</f>
         <v>-3.196689278957495</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="2">
         <f>M19^2</f>
         <v>1.7132676602630341</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="2">
         <f>M19*N19</f>
         <v>4.1842057611595473</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="2">
         <f>(SUM(M19:M28))/10</f>
         <v>-1.4011787422956004</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="2">
         <f>(SUM(N19:N28))/10</f>
         <v>-3.3322853614059467</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="2">
         <f>SUM(P19:P28)</f>
         <v>46.941005528531207</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="2">
         <f>SUM(O19:O28)</f>
         <v>19.793072091169016</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="2">
         <f>Q19^2</f>
         <v>1.9633018678610805</v>
       </c>
-      <c r="V19" s="5">
+      <c r="V19" s="8">
         <f>((S19/10)-(Q19*R19))/((T19/10)-U19)</f>
         <v>1.5603004515266661</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="8">
         <f>R19-(V19*Q19)</f>
         <v>-1.1460255371325552</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="15">
         <f>10^W19</f>
         <v>7.1445431391162648E-2</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>21</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="7">
         <v>30.53</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="7">
         <v>120.75</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <f t="shared" ref="D20:D28" si="11">C20/1000</f>
         <v>0.12075</v>
       </c>
-      <c r="F20" s="1">
+      <c r="E20" s="21"/>
+      <c r="F20" s="2">
         <f t="shared" ref="F20:F28" si="12">(A20/B20)*10</f>
         <v>6.878480183426138</v>
       </c>
-      <c r="G20" s="2">
-        <f t="shared" ref="G20:G28" si="13">C20-69.6</f>
+      <c r="G20" s="7">
+        <f t="shared" ref="G20:G28" si="13">C20-B$17</f>
         <v>51.150000000000006</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="2">
         <f t="shared" ref="H20:H28" si="14">G20/1000</f>
         <v>5.1150000000000008E-2</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="2">
         <f t="shared" ref="I20:I28" si="15">LOG10(F20*10^-4)</f>
         <v>-3.1625075095647426</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="2">
         <f t="shared" ref="J20:J28" si="16">LOG10(H20)</f>
         <v>-1.2911543619518209</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="2">
         <f t="shared" ref="K20:K28" si="17">(F20*(10^-4))/((9.81^(1/2))*(H20^(3/2)))</f>
         <v>1.898407887737948E-2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="L20" s="21"/>
+      <c r="M20" s="2">
         <f t="shared" ref="M20:M28" si="18">J20</f>
         <v>-1.2911543619518209</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="2">
         <f t="shared" ref="N20:N28" si="19">I20</f>
         <v>-3.1625075095647426</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="2">
         <f t="shared" ref="O20:O27" si="20">M20^2</f>
         <v>1.6670795863872137</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="2">
         <f t="shared" ref="P20:P28" si="21">M20*N20</f>
         <v>4.0832853656799069</v>
       </c>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>24</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="7">
         <v>34.81</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="7">
         <v>120.85</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <f t="shared" si="11"/>
         <v>0.12085</v>
       </c>
-      <c r="F21" s="1">
+      <c r="E21" s="21"/>
+      <c r="F21" s="2">
         <f t="shared" si="12"/>
         <v>6.8945705257110026</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="7">
         <f t="shared" si="13"/>
         <v>51.25</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="2">
         <f t="shared" si="14"/>
         <v>5.1249999999999997E-2</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="2">
         <f t="shared" si="15"/>
         <v>-3.1614927815726821</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="2">
         <f t="shared" si="16"/>
         <v>-1.2903061302722081</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="2">
         <f t="shared" si="17"/>
         <v>1.8972821034215496E-2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="L21" s="21"/>
+      <c r="M21" s="2">
         <f t="shared" si="18"/>
         <v>-1.2903061302722081</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="2">
         <f t="shared" si="19"/>
         <v>-3.1614927815726821</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="2">
         <f t="shared" si="20"/>
         <v>1.6648899098180405</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="2">
         <f t="shared" si="21"/>
         <v>4.079293516874567</v>
       </c>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="7">
         <v>36.25</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="7">
         <v>90.05</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <f t="shared" si="11"/>
         <v>9.0049999999999991E-2</v>
       </c>
-      <c r="F22" s="1">
+      <c r="E22" s="21"/>
+      <c r="F22" s="2">
         <f t="shared" si="12"/>
         <v>1.6551724137931034</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="7">
         <f t="shared" si="13"/>
         <v>20.450000000000003</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="2">
         <f t="shared" si="14"/>
         <v>2.0450000000000003E-2</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="2">
         <f t="shared" si="15"/>
         <v>-3.7811567605233689</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="2">
         <f t="shared" si="16"/>
         <v>-1.6893066876566394</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="2">
         <f t="shared" si="17"/>
         <v>1.8070441659229126E-2</v>
       </c>
-      <c r="M22" s="4">
+      <c r="L22" s="21"/>
+      <c r="M22" s="2">
         <f t="shared" si="18"/>
         <v>-1.6893066876566394</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="2">
         <f t="shared" si="19"/>
         <v>-3.7811567605233689</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="2">
         <f t="shared" si="20"/>
         <v>2.8537570849614466</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="2">
         <f t="shared" si="21"/>
         <v>6.3875334026302415</v>
       </c>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>12</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="7">
         <v>43.6</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="7">
         <v>98.1</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <f t="shared" si="11"/>
         <v>9.8099999999999993E-2</v>
       </c>
-      <c r="F23" s="1">
+      <c r="E23" s="21"/>
+      <c r="F23" s="2">
         <f t="shared" si="12"/>
         <v>2.7522935779816518</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="7">
         <f t="shared" si="13"/>
         <v>28.5</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="2">
         <f t="shared" si="14"/>
         <v>2.8500000000000001E-2</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="2">
         <f t="shared" si="15"/>
         <v>-3.5603052432209612</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="2">
         <f t="shared" si="16"/>
         <v>-1.5451551399914898</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="2">
         <f t="shared" si="17"/>
         <v>1.8263876553642665E-2</v>
       </c>
-      <c r="M23" s="4">
+      <c r="L23" s="21"/>
+      <c r="M23" s="2">
         <f t="shared" si="18"/>
         <v>-1.5451551399914898</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="2">
         <f t="shared" si="19"/>
         <v>-3.5603052432209612</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="2">
         <f t="shared" si="20"/>
         <v>2.3875044066421203</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="2">
         <f t="shared" si="21"/>
         <v>5.5012239465015194</v>
       </c>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>12</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="7">
         <v>33.69</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="7">
         <v>103.1</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <f t="shared" si="11"/>
         <v>0.1031</v>
       </c>
-      <c r="F24" s="1">
+      <c r="E24" s="21"/>
+      <c r="F24" s="2">
         <f t="shared" si="12"/>
         <v>3.5618878005342838</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="7">
         <f t="shared" si="13"/>
         <v>33.5</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="2">
         <f t="shared" si="14"/>
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="2">
         <f t="shared" si="15"/>
         <v>-3.4483197649334953</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="2">
         <f t="shared" si="16"/>
         <v>-1.4749551929631548</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="2">
         <f t="shared" si="17"/>
         <v>1.854720707656422E-2</v>
       </c>
-      <c r="M24" s="4">
+      <c r="L24" s="21"/>
+      <c r="M24" s="2">
         <f t="shared" si="18"/>
         <v>-1.4749551929631548</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="2">
         <f t="shared" si="19"/>
         <v>-3.4483197649334953</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="2">
         <f t="shared" si="20"/>
         <v>2.175492821248977</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="2">
         <f t="shared" si="21"/>
         <v>5.0861171442861446</v>
       </c>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="7">
         <v>34.85</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="7">
         <v>107.35</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <f t="shared" si="11"/>
         <v>0.10735</v>
       </c>
-      <c r="F25" s="1">
+      <c r="E25" s="21"/>
+      <c r="F25" s="2">
         <f t="shared" si="12"/>
         <v>4.3041606886657107</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="7">
         <f t="shared" si="13"/>
         <v>37.75</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="2">
         <f t="shared" si="14"/>
         <v>3.7749999999999999E-2</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="2">
         <f t="shared" si="15"/>
         <v>-3.366111523378347</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="2">
         <f t="shared" si="16"/>
         <v>-1.423083044034793</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="2">
         <f t="shared" si="17"/>
         <v>1.8736071668753306E-2</v>
       </c>
-      <c r="M25" s="4">
+      <c r="L25" s="21"/>
+      <c r="M25" s="2">
         <f t="shared" si="18"/>
         <v>-1.423083044034793</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="2">
         <f t="shared" si="19"/>
         <v>-3.366111523378347</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="2">
         <f t="shared" si="20"/>
         <v>2.0251653502193325</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="2">
         <f t="shared" si="21"/>
         <v>4.7902562332498526</v>
       </c>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>18</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="7">
         <v>33.31</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="7">
         <v>112.85</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <f t="shared" si="11"/>
         <v>0.11284999999999999</v>
       </c>
-      <c r="F26" s="1">
+      <c r="E26" s="21"/>
+      <c r="F26" s="2">
         <f t="shared" si="12"/>
         <v>5.4037826478534967</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="7">
         <f t="shared" si="13"/>
         <v>43.25</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="2">
         <f t="shared" si="14"/>
         <v>4.3249999999999997E-2</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="2">
         <f t="shared" si="15"/>
         <v>-3.2673021275878709</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="2">
         <f t="shared" si="16"/>
         <v>-1.364013888199167</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="2">
         <f t="shared" si="17"/>
         <v>1.9181572207855317E-2</v>
       </c>
-      <c r="M26" s="4">
+      <c r="L26" s="21"/>
+      <c r="M26" s="2">
         <f t="shared" si="18"/>
         <v>-1.364013888199167</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="2">
         <f t="shared" si="19"/>
         <v>-3.2673021275878709</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="2">
         <f t="shared" si="20"/>
         <v>1.8605338872002097</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="2">
         <f t="shared" si="21"/>
         <v>4.4566454789725425</v>
       </c>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>21</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="7">
         <v>33.6</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="7">
         <v>116.85</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <f t="shared" si="11"/>
         <v>0.11685</v>
       </c>
-      <c r="F27" s="1">
+      <c r="E27" s="21"/>
+      <c r="F27" s="2">
         <f t="shared" si="12"/>
         <v>6.25</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="7">
         <f t="shared" si="13"/>
         <v>47.25</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="2">
         <f t="shared" si="14"/>
         <v>4.725E-2</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="2">
         <f t="shared" si="15"/>
         <v>-3.2041199826559246</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="2">
         <f t="shared" si="16"/>
         <v>-1.3255981871547182</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="2">
         <f t="shared" si="17"/>
         <v>1.9428657591532728E-2</v>
       </c>
-      <c r="M27" s="4">
+      <c r="L27" s="21"/>
+      <c r="M27" s="2">
         <f t="shared" si="18"/>
         <v>-1.3255981871547182</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="2">
         <f t="shared" si="19"/>
         <v>-3.2041199826559246</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="2">
         <f t="shared" si="20"/>
         <v>1.7572105537878753</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="2">
         <f t="shared" si="21"/>
         <v>4.2473756404349006</v>
       </c>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>21</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="7">
         <v>31.41</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="7">
         <v>119.8</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <f t="shared" si="11"/>
         <v>0.1198</v>
       </c>
-      <c r="F28" s="1">
+      <c r="E28" s="22"/>
+      <c r="F28" s="2">
         <f t="shared" si="12"/>
         <v>6.6857688634192938</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="7">
         <f t="shared" si="13"/>
         <v>50.2</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="2">
         <f t="shared" si="14"/>
         <v>5.0200000000000002E-2</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="2">
         <f t="shared" si="15"/>
         <v>-3.1748486416645854</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="2">
         <f t="shared" si="16"/>
         <v>-1.2992962828549806</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="2">
         <f t="shared" si="17"/>
         <v>1.8978473549885907E-2</v>
       </c>
-      <c r="M28" s="4">
+      <c r="L28" s="22"/>
+      <c r="M28" s="2">
         <f t="shared" si="18"/>
         <v>-1.2992962828549806</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="2">
         <f t="shared" si="19"/>
         <v>-3.1748486416645854</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="2">
         <f>M28^2</f>
         <v>1.6881708306407697</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="2">
         <f t="shared" si="21"/>
         <v>4.1250690387419802</v>
       </c>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="J29" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="2">
         <f>AVERAGE(K19:K28)</f>
         <v>1.8782072293982439E-2</v>
       </c>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
     </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G57" s="10" t="s">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N32" s="43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N33" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="O33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I57" s="12" t="s">
+      <c r="P33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J57" s="12" t="s">
+      <c r="Q33" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G58" s="10"/>
-      <c r="H58" s="13" t="s">
+    <row r="34" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N34" s="24"/>
+      <c r="O34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I58" s="11">
+      <c r="P34" s="4">
         <f>K14</f>
         <v>0.63582601713142695</v>
       </c>
-      <c r="J58" s="11">
+      <c r="Q34" s="4">
         <f>0.636/0.7542</f>
         <v>0.84327764518695314</v>
       </c>
     </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G59" s="10" t="s">
+    <row r="35" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N35" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="O35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I59" s="12" t="s">
+      <c r="P35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J59" s="12" t="s">
+      <c r="Q35" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G60" s="10"/>
-      <c r="H60" s="13" t="s">
+    <row r="36" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N36" s="24"/>
+      <c r="O36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I60" s="11">
+      <c r="P36" s="4">
         <f>K29</f>
         <v>1.8782072293982439E-2</v>
       </c>
-      <c r="J60" s="11">
-        <f>I60/0.028756</f>
+      <c r="Q36" s="4">
+        <f>P36/0.028756</f>
         <v>0.65315316087016406</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="34">
+    <mergeCell ref="W5:X17"/>
+    <mergeCell ref="W1:X2"/>
+    <mergeCell ref="W20:X29"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="A15:V15"/>
+    <mergeCell ref="F16:V16"/>
+    <mergeCell ref="L17:V17"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="F1:V1"/>
+    <mergeCell ref="L2:V2"/>
+    <mergeCell ref="L3:L13"/>
+    <mergeCell ref="L18:L28"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q20:V29"/>
+    <mergeCell ref="E18:E28"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q5:V14"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/lab11/Lab-flu-11.xlsx
+++ b/lab11/Lab-flu-11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161B9FA8-196C-4FAF-988A-512198614D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB82C11C-E1E6-4A7C-AB32-05358D6317FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD930733-D6D9-0543-9D83-32F9058366BC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD930733-D6D9-0543-9D83-32F9058366BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -415,6 +415,90 @@
     <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -433,91 +517,10 @@
     <xf numFmtId="188" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1445,7 +1448,7 @@
             <c:numRef>
               <c:f>Sheet1!$K$19:$K$28</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.8657522720766123E-2</c:v>
@@ -4240,8 +4243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDF6C7A-DED1-924B-901B-0FA50C1931C6}">
   <dimension ref="A1:AF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K28" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4262,132 +4265,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38">
+      <c r="A2" s="28"/>
+      <c r="B2" s="14">
         <v>99.1</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="43"/>
+      <c r="I2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="29" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="29" t="s">
+      <c r="Q3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="R3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="S3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="30" t="s">
+      <c r="U3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="29" t="s">
+      <c r="V3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="29" t="s">
+      <c r="W3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="29" t="s">
+      <c r="X3" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4405,7 +4408,7 @@
         <f>C4/1000</f>
         <v>0.12329999999999999</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="2">
         <f>(A4/B4)*10</f>
         <v>1.9595035924232527</v>
@@ -4430,7 +4433,7 @@
         <f>(F4*(10^-4))/((9.81^0.5)*(H4^2.5))</f>
         <v>0.68670964211303187</v>
       </c>
-      <c r="L4" s="21"/>
+      <c r="L4" s="34"/>
       <c r="M4" s="2">
         <f>J4</f>
         <v>-1.6161846340195687</v>
@@ -4497,7 +4500,7 @@
         <f t="shared" ref="D5:D13" si="0">C5/1000</f>
         <v>0.12675</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="2">
         <f t="shared" ref="F5:F13" si="1">(A5/B5)*10</f>
         <v>2.6938042502244839</v>
@@ -4522,7 +4525,7 @@
         <f>(F5*(10^-4))/((9.81^0.5)*(H5^2.5))</f>
         <v>0.6765403301424916</v>
       </c>
-      <c r="L5" s="21"/>
+      <c r="L5" s="34"/>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M13" si="6">J5</f>
         <v>-1.5583048643592829</v>
@@ -4539,14 +4542,14 @@
         <f t="shared" ref="P5:P13" si="9">M5*N5</f>
         <v>5.5625779735097201</v>
       </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -4562,7 +4565,7 @@
         <f t="shared" si="0"/>
         <v>0.1308</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="2">
         <f t="shared" si="1"/>
         <v>3.3426183844011144</v>
@@ -4584,10 +4587,10 @@
         <v>-1.4989407377822483</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" ref="K5:K13" si="10">(F6*(10^-4))/((9.81^0.5)*(H6^2.5))</f>
+        <f t="shared" ref="K6:K13" si="10">(F6*(10^-4))/((9.81^0.5)*(H6^2.5))</f>
         <v>0.59649133364235474</v>
       </c>
-      <c r="L6" s="21"/>
+      <c r="L6" s="34"/>
       <c r="M6" s="2">
         <f t="shared" si="6"/>
         <v>-1.4989407377822483</v>
@@ -4604,14 +4607,14 @@
         <f t="shared" si="9"/>
         <v>5.2101879002684166</v>
       </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -4627,7 +4630,7 @@
         <f t="shared" si="0"/>
         <v>0.1343</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="2">
         <f t="shared" si="1"/>
         <v>4.2589437819420786</v>
@@ -4652,7 +4655,7 @@
         <f t="shared" si="10"/>
         <v>0.58493922455812764</v>
       </c>
-      <c r="L7" s="21"/>
+      <c r="L7" s="34"/>
       <c r="M7" s="2">
         <f t="shared" si="6"/>
         <v>-1.4534573365218688</v>
@@ -4669,14 +4672,14 @@
         <f t="shared" si="9"/>
         <v>4.8991658718542412</v>
       </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -4692,7 +4695,7 @@
         <f t="shared" si="0"/>
         <v>0.1371</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="2">
         <f t="shared" si="1"/>
         <v>4.8987589810581316</v>
@@ -4717,7 +4720,7 @@
         <f t="shared" si="10"/>
         <v>0.55563881631816059</v>
       </c>
-      <c r="L8" s="21"/>
+      <c r="L8" s="34"/>
       <c r="M8" s="2">
         <f t="shared" si="6"/>
         <v>-1.4202164033831899</v>
@@ -4734,14 +4737,14 @@
         <f t="shared" si="9"/>
         <v>4.700794053347253</v>
       </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -4757,7 +4760,7 @@
         <f t="shared" si="0"/>
         <v>0.14124999999999999</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="34"/>
       <c r="F9" s="2">
         <f t="shared" si="1"/>
         <v>6.4615384615384617</v>
@@ -4782,7 +4785,7 @@
         <f t="shared" si="10"/>
         <v>0.56559750194964142</v>
       </c>
-      <c r="L9" s="21"/>
+      <c r="L9" s="34"/>
       <c r="M9" s="2">
         <f t="shared" si="6"/>
         <v>-1.3752024210392388</v>
@@ -4799,14 +4802,14 @@
         <f t="shared" si="9"/>
         <v>4.3864337462019254</v>
       </c>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -4822,7 +4825,7 @@
         <f t="shared" si="0"/>
         <v>0.13900000000000001</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
         <v>5.625</v>
@@ -4847,7 +4850,7 @@
         <f t="shared" si="10"/>
         <v>0.56474940739429236</v>
       </c>
-      <c r="L10" s="21"/>
+      <c r="L10" s="34"/>
       <c r="M10" s="2">
         <f t="shared" si="6"/>
         <v>-1.3990271043132516</v>
@@ -4864,14 +4867,14 @@
         <f t="shared" si="9"/>
         <v>4.5466666707270864</v>
       </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -4887,7 +4890,7 @@
         <f t="shared" si="0"/>
         <v>0.1285</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="2">
         <f t="shared" si="1"/>
         <v>3.0848329048843186</v>
@@ -4912,7 +4915,7 @@
         <f t="shared" si="10"/>
         <v>0.66455176378540881</v>
       </c>
-      <c r="L11" s="21"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="2">
         <f t="shared" si="6"/>
         <v>-1.5316526695878425</v>
@@ -4929,14 +4932,14 @@
         <f t="shared" si="9"/>
         <v>5.3772777236661948</v>
       </c>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -4952,7 +4955,7 @@
         <f t="shared" si="0"/>
         <v>0.126</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
         <v>2.4725274725274726</v>
@@ -4977,7 +4980,7 @@
         <f t="shared" si="10"/>
         <v>0.6651596897834382</v>
       </c>
-      <c r="L12" s="21"/>
+      <c r="L12" s="34"/>
       <c r="M12" s="2">
         <f t="shared" si="6"/>
         <v>-1.5702477199975919</v>
@@ -4994,14 +4997,14 @@
         <f t="shared" si="9"/>
         <v>5.6636619235809116</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -5017,7 +5020,7 @@
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
         <v>1.5781167806417673</v>
@@ -5042,7 +5045,7 @@
         <f t="shared" si="10"/>
         <v>0.79788246162732246</v>
       </c>
-      <c r="L13" s="22"/>
+      <c r="L13" s="35"/>
       <c r="M13" s="2">
         <f t="shared" si="6"/>
         <v>-1.6798537138889458</v>
@@ -5059,25 +5062,25 @@
         <f t="shared" si="9"/>
         <v>6.3865700889646186</v>
       </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="1" t="s">
         <v>30</v>
       </c>
@@ -5085,173 +5088,173 @@
         <f>AVERAGE(K4:K13)</f>
         <v>0.63582601713142695</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42">
+      <c r="A17" s="30"/>
+      <c r="B17" s="16">
         <v>69.599999999999994</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="18" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18" t="s">
+      <c r="H17" s="43"/>
+      <c r="I17" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="L17" s="27"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19" t="s">
+      <c r="E18" s="33"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="29" t="s">
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N18" s="29" t="s">
+      <c r="N18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O18" s="29" t="s">
+      <c r="O18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="P18" s="29" t="s">
+      <c r="P18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Q18" s="29" t="s">
+      <c r="Q18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="R18" s="29" t="s">
+      <c r="R18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="S18" s="29" t="s">
+      <c r="S18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="29" t="s">
+      <c r="T18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="U18" s="30" t="s">
+      <c r="U18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="V18" s="29" t="s">
+      <c r="V18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W18" s="29" t="s">
+      <c r="W18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="X18" s="29" t="s">
+      <c r="X18" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5269,7 +5272,7 @@
         <f>C19/1000</f>
         <v>0.1187</v>
       </c>
-      <c r="E19" s="21"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="2">
         <f>(A19/B19)*10</f>
         <v>6.3578564940962758</v>
@@ -5290,11 +5293,11 @@
         <f>LOG10(H19)</f>
         <v>-1.3089185078770313</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="8">
         <f>(F19*(10^-4))/((9.81^(1/2))*(H19^(3/2)))</f>
         <v>1.8657522720766123E-2</v>
       </c>
-      <c r="L19" s="21"/>
+      <c r="L19" s="34"/>
       <c r="M19" s="2">
         <f>J19</f>
         <v>-1.3089185078770313</v>
@@ -5339,7 +5342,7 @@
         <f>R19-(V19*Q19)</f>
         <v>-1.1460255371325552</v>
       </c>
-      <c r="X19" s="15">
+      <c r="X19" s="9">
         <f>10^W19</f>
         <v>7.1445431391162648E-2</v>
       </c>
@@ -5358,7 +5361,7 @@
         <f t="shared" ref="D20:D28" si="11">C20/1000</f>
         <v>0.12075</v>
       </c>
-      <c r="E20" s="21"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="2">
         <f t="shared" ref="F20:F28" si="12">(A20/B20)*10</f>
         <v>6.878480183426138</v>
@@ -5379,11 +5382,11 @@
         <f t="shared" ref="J20:J28" si="16">LOG10(H20)</f>
         <v>-1.2911543619518209</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="8">
         <f t="shared" ref="K20:K28" si="17">(F20*(10^-4))/((9.81^(1/2))*(H20^(3/2)))</f>
         <v>1.898407887737948E-2</v>
       </c>
-      <c r="L20" s="21"/>
+      <c r="L20" s="34"/>
       <c r="M20" s="2">
         <f t="shared" ref="M20:M28" si="18">J20</f>
         <v>-1.2911543619518209</v>
@@ -5400,14 +5403,14 @@
         <f t="shared" ref="P20:P28" si="21">M20*N20</f>
         <v>4.0832853656799069</v>
       </c>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -5423,7 +5426,7 @@
         <f t="shared" si="11"/>
         <v>0.12085</v>
       </c>
-      <c r="E21" s="21"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="2">
         <f t="shared" si="12"/>
         <v>6.8945705257110026</v>
@@ -5444,11 +5447,11 @@
         <f t="shared" si="16"/>
         <v>-1.2903061302722081</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="8">
         <f t="shared" si="17"/>
         <v>1.8972821034215496E-2</v>
       </c>
-      <c r="L21" s="21"/>
+      <c r="L21" s="34"/>
       <c r="M21" s="2">
         <f t="shared" si="18"/>
         <v>-1.2903061302722081</v>
@@ -5465,14 +5468,14 @@
         <f t="shared" si="21"/>
         <v>4.079293516874567</v>
       </c>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -5488,7 +5491,7 @@
         <f t="shared" si="11"/>
         <v>9.0049999999999991E-2</v>
       </c>
-      <c r="E22" s="21"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="2">
         <f t="shared" si="12"/>
         <v>1.6551724137931034</v>
@@ -5509,11 +5512,11 @@
         <f t="shared" si="16"/>
         <v>-1.6893066876566394</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="8">
         <f t="shared" si="17"/>
         <v>1.8070441659229126E-2</v>
       </c>
-      <c r="L22" s="21"/>
+      <c r="L22" s="34"/>
       <c r="M22" s="2">
         <f t="shared" si="18"/>
         <v>-1.6893066876566394</v>
@@ -5530,14 +5533,14 @@
         <f t="shared" si="21"/>
         <v>6.3875334026302415</v>
       </c>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -5553,7 +5556,7 @@
         <f t="shared" si="11"/>
         <v>9.8099999999999993E-2</v>
       </c>
-      <c r="E23" s="21"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="2">
         <f t="shared" si="12"/>
         <v>2.7522935779816518</v>
@@ -5574,11 +5577,11 @@
         <f t="shared" si="16"/>
         <v>-1.5451551399914898</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="8">
         <f t="shared" si="17"/>
         <v>1.8263876553642665E-2</v>
       </c>
-      <c r="L23" s="21"/>
+      <c r="L23" s="34"/>
       <c r="M23" s="2">
         <f t="shared" si="18"/>
         <v>-1.5451551399914898</v>
@@ -5595,14 +5598,14 @@
         <f t="shared" si="21"/>
         <v>5.5012239465015194</v>
       </c>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -5618,7 +5621,7 @@
         <f t="shared" si="11"/>
         <v>0.1031</v>
       </c>
-      <c r="E24" s="21"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="2">
         <f t="shared" si="12"/>
         <v>3.5618878005342838</v>
@@ -5639,11 +5642,11 @@
         <f t="shared" si="16"/>
         <v>-1.4749551929631548</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="8">
         <f t="shared" si="17"/>
         <v>1.854720707656422E-2</v>
       </c>
-      <c r="L24" s="21"/>
+      <c r="L24" s="34"/>
       <c r="M24" s="2">
         <f t="shared" si="18"/>
         <v>-1.4749551929631548</v>
@@ -5660,14 +5663,14 @@
         <f t="shared" si="21"/>
         <v>5.0861171442861446</v>
       </c>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -5683,7 +5686,7 @@
         <f t="shared" si="11"/>
         <v>0.10735</v>
       </c>
-      <c r="E25" s="21"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="2">
         <f t="shared" si="12"/>
         <v>4.3041606886657107</v>
@@ -5704,11 +5707,11 @@
         <f t="shared" si="16"/>
         <v>-1.423083044034793</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="8">
         <f t="shared" si="17"/>
         <v>1.8736071668753306E-2</v>
       </c>
-      <c r="L25" s="21"/>
+      <c r="L25" s="34"/>
       <c r="M25" s="2">
         <f t="shared" si="18"/>
         <v>-1.423083044034793</v>
@@ -5725,14 +5728,14 @@
         <f t="shared" si="21"/>
         <v>4.7902562332498526</v>
       </c>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -5748,7 +5751,7 @@
         <f t="shared" si="11"/>
         <v>0.11284999999999999</v>
       </c>
-      <c r="E26" s="21"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="2">
         <f t="shared" si="12"/>
         <v>5.4037826478534967</v>
@@ -5769,11 +5772,11 @@
         <f t="shared" si="16"/>
         <v>-1.364013888199167</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="8">
         <f t="shared" si="17"/>
         <v>1.9181572207855317E-2</v>
       </c>
-      <c r="L26" s="21"/>
+      <c r="L26" s="34"/>
       <c r="M26" s="2">
         <f t="shared" si="18"/>
         <v>-1.364013888199167</v>
@@ -5790,14 +5793,14 @@
         <f t="shared" si="21"/>
         <v>4.4566454789725425</v>
       </c>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -5813,7 +5816,7 @@
         <f t="shared" si="11"/>
         <v>0.11685</v>
       </c>
-      <c r="E27" s="21"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="2">
         <f t="shared" si="12"/>
         <v>6.25</v>
@@ -5834,11 +5837,11 @@
         <f t="shared" si="16"/>
         <v>-1.3255981871547182</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="8">
         <f t="shared" si="17"/>
         <v>1.9428657591532728E-2</v>
       </c>
-      <c r="L27" s="21"/>
+      <c r="L27" s="34"/>
       <c r="M27" s="2">
         <f t="shared" si="18"/>
         <v>-1.3255981871547182</v>
@@ -5855,14 +5858,14 @@
         <f t="shared" si="21"/>
         <v>4.2473756404349006</v>
       </c>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -5878,7 +5881,7 @@
         <f t="shared" si="11"/>
         <v>0.1198</v>
       </c>
-      <c r="E28" s="22"/>
+      <c r="E28" s="35"/>
       <c r="F28" s="2">
         <f t="shared" si="12"/>
         <v>6.6857688634192938</v>
@@ -5899,11 +5902,11 @@
         <f t="shared" si="16"/>
         <v>-1.2992962828549806</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="8">
         <f t="shared" si="17"/>
         <v>1.8978473549885907E-2</v>
       </c>
-      <c r="L28" s="22"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="2">
         <f t="shared" si="18"/>
         <v>-1.2992962828549806</v>
@@ -5920,53 +5923,53 @@
         <f t="shared" si="21"/>
         <v>4.1250690387419802</v>
       </c>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="11"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="39"/>
       <c r="J29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="8">
         <f>AVERAGE(K19:K28)</f>
         <v>1.8782072293982439E-2</v>
       </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N32" s="43" t="s">
+      <c r="N32" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N33" s="23" t="s">
+      <c r="N33" s="25" t="s">
         <v>31</v>
       </c>
       <c r="O33" s="3" t="s">
@@ -5980,7 +5983,7 @@
       </c>
     </row>
     <row r="34" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N34" s="24"/>
+      <c r="N34" s="26"/>
       <c r="O34" s="6" t="s">
         <v>38</v>
       </c>
@@ -5994,7 +5997,7 @@
       </c>
     </row>
     <row r="35" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N35" s="23" t="s">
+      <c r="N35" s="25" t="s">
         <v>32</v>
       </c>
       <c r="O35" s="3" t="s">
@@ -6008,11 +6011,11 @@
       </c>
     </row>
     <row r="36" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N36" s="24"/>
+      <c r="N36" s="26"/>
       <c r="O36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P36" s="4">
+      <c r="P36" s="44">
         <f>K29</f>
         <v>1.8782072293982439E-2</v>
       </c>
@@ -6023,11 +6026,22 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="W5:X17"/>
-    <mergeCell ref="W1:X2"/>
-    <mergeCell ref="W20:X29"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="L18:L28"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="E18:E28"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C16:E17"/>
@@ -6038,25 +6052,14 @@
     <mergeCell ref="F1:V1"/>
     <mergeCell ref="L2:V2"/>
     <mergeCell ref="L3:L13"/>
-    <mergeCell ref="L18:L28"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q5:V14"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="W5:X17"/>
+    <mergeCell ref="W1:X2"/>
+    <mergeCell ref="W20:X29"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="N35:N36"/>
     <mergeCell ref="Q20:V29"/>
-    <mergeCell ref="E18:E28"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q5:V14"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/lab11/Lab-flu-11.xlsx
+++ b/lab11/Lab-flu-11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB82C11C-E1E6-4A7C-AB32-05358D6317FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1C0001-C23F-4FEA-B042-90A6D32E37E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD930733-D6D9-0543-9D83-32F9058366BC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>t(s)</t>
   </si>
@@ -161,6 +161,9 @@
   <si>
     <t>หน้า11-9</t>
   </si>
+  <si>
+    <t>ผลรวม</t>
+  </si>
 </sst>
 </file>
 
@@ -180,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +253,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -508,9 +517,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="188" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -523,12 +529,23 @@
     <xf numFmtId="188" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4243,8 +4260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDF6C7A-DED1-924B-901B-0FA50C1931C6}">
   <dimension ref="A1:AF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4305,10 +4322,10 @@
       <c r="F2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="43"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="36" t="s">
         <v>10</v>
       </c>
@@ -4542,12 +4559,12 @@
         <f t="shared" ref="P5:P13" si="9">M5*N5</f>
         <v>5.5625779735097201</v>
       </c>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
       <c r="W5" s="19"/>
       <c r="X5" s="19"/>
     </row>
@@ -4607,12 +4624,12 @@
         <f t="shared" si="9"/>
         <v>5.2101879002684166</v>
       </c>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
       <c r="W6" s="20"/>
       <c r="X6" s="20"/>
     </row>
@@ -4672,12 +4689,12 @@
         <f t="shared" si="9"/>
         <v>4.8991658718542412</v>
       </c>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
     </row>
@@ -4737,12 +4754,12 @@
         <f t="shared" si="9"/>
         <v>4.700794053347253</v>
       </c>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
       <c r="W8" s="20"/>
       <c r="X8" s="20"/>
     </row>
@@ -4802,12 +4819,12 @@
         <f t="shared" si="9"/>
         <v>4.3864337462019254</v>
       </c>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
       <c r="W9" s="20"/>
       <c r="X9" s="20"/>
     </row>
@@ -4867,12 +4884,12 @@
         <f t="shared" si="9"/>
         <v>4.5466666707270864</v>
       </c>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
     </row>
@@ -4932,12 +4949,12 @@
         <f t="shared" si="9"/>
         <v>5.3772777236661948</v>
       </c>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
     </row>
@@ -4997,12 +5014,12 @@
         <f t="shared" si="9"/>
         <v>5.6636619235809116</v>
       </c>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
     </row>
@@ -5062,12 +5079,12 @@
         <f t="shared" si="9"/>
         <v>6.3865700889646186</v>
       </c>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
       <c r="W13" s="20"/>
       <c r="X13" s="20"/>
     </row>
@@ -5088,17 +5105,31 @@
         <f>AVERAGE(K4:K13)</f>
         <v>0.63582601713142695</v>
       </c>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
+      <c r="L14" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="45">
+        <f>SUM(M4:M13)</f>
+        <v>-15.103087604893028</v>
+      </c>
+      <c r="N14" s="45">
+        <f t="shared" ref="N14:P14" si="11">SUM(N4:N13)</f>
+        <v>-34.793042755685391</v>
+      </c>
+      <c r="O14" s="45">
+        <f t="shared" si="11"/>
+        <v>22.898747858352884</v>
+      </c>
+      <c r="P14" s="45">
+        <f t="shared" si="11"/>
+        <v>52.725912508637954</v>
+      </c>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
     </row>
@@ -5169,10 +5200,10 @@
       <c r="F17" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="43"/>
+      <c r="H17" s="42"/>
       <c r="I17" s="36" t="s">
         <v>10</v>
       </c>
@@ -5358,57 +5389,57 @@
         <v>120.75</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" ref="D20:D28" si="11">C20/1000</f>
+        <f t="shared" ref="D20:D28" si="12">C20/1000</f>
         <v>0.12075</v>
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="2">
-        <f t="shared" ref="F20:F28" si="12">(A20/B20)*10</f>
+        <f t="shared" ref="F20:F28" si="13">(A20/B20)*10</f>
         <v>6.878480183426138</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" ref="G20:G28" si="13">C20-B$17</f>
+        <f t="shared" ref="G20:G28" si="14">C20-B$17</f>
         <v>51.150000000000006</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" ref="H20:H28" si="14">G20/1000</f>
+        <f t="shared" ref="H20:H28" si="15">G20/1000</f>
         <v>5.1150000000000008E-2</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" ref="I20:I28" si="15">LOG10(F20*10^-4)</f>
+        <f t="shared" ref="I20:I28" si="16">LOG10(F20*10^-4)</f>
         <v>-3.1625075095647426</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" ref="J20:J28" si="16">LOG10(H20)</f>
+        <f t="shared" ref="J20:J28" si="17">LOG10(H20)</f>
         <v>-1.2911543619518209</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" ref="K20:K28" si="17">(F20*(10^-4))/((9.81^(1/2))*(H20^(3/2)))</f>
+        <f t="shared" ref="K20:K28" si="18">(F20*(10^-4))/((9.81^(1/2))*(H20^(3/2)))</f>
         <v>1.898407887737948E-2</v>
       </c>
       <c r="L20" s="34"/>
       <c r="M20" s="2">
-        <f t="shared" ref="M20:M28" si="18">J20</f>
+        <f t="shared" ref="M20:M28" si="19">J20</f>
         <v>-1.2911543619518209</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" ref="N20:N28" si="19">I20</f>
+        <f t="shared" ref="N20:N28" si="20">I20</f>
         <v>-3.1625075095647426</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" ref="O20:O27" si="20">M20^2</f>
+        <f t="shared" ref="O20:O27" si="21">M20^2</f>
         <v>1.6670795863872137</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" ref="P20:P28" si="21">M20*N20</f>
+        <f t="shared" ref="P20:P28" si="22">M20*N20</f>
         <v>4.0832853656799069</v>
       </c>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
       <c r="W20" s="24"/>
       <c r="X20" s="24"/>
     </row>
@@ -5423,57 +5454,57 @@
         <v>120.85</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.12085</v>
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.8945705257110026</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>51.25</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.1249999999999997E-2</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.1614927815726821</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1.2903061302722081</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.8972821034215496E-2</v>
       </c>
       <c r="L21" s="34"/>
       <c r="M21" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1.2903061302722081</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-3.1614927815726821</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.6648899098180405</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.079293516874567</v>
       </c>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
       <c r="W21" s="22"/>
       <c r="X21" s="22"/>
     </row>
@@ -5488,57 +5519,57 @@
         <v>90.05</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.0049999999999991E-2</v>
       </c>
       <c r="E22" s="34"/>
       <c r="F22" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6551724137931034</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20.450000000000003</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.0450000000000003E-2</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.7811567605233689</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1.6893066876566394</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.8070441659229126E-2</v>
       </c>
       <c r="L22" s="34"/>
       <c r="M22" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1.6893066876566394</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-3.7811567605233689</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.8537570849614466</v>
       </c>
       <c r="P22" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6.3875334026302415</v>
       </c>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
       <c r="W22" s="22"/>
       <c r="X22" s="22"/>
     </row>
@@ -5553,57 +5584,57 @@
         <v>98.1</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.8099999999999993E-2</v>
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.7522935779816518</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28.5</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8500000000000001E-2</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.5603052432209612</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1.5451551399914898</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.8263876553642665E-2</v>
       </c>
       <c r="L23" s="34"/>
       <c r="M23" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1.5451551399914898</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-3.5603052432209612</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.3875044066421203</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.5012239465015194</v>
       </c>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
       <c r="W23" s="22"/>
       <c r="X23" s="22"/>
     </row>
@@ -5618,57 +5649,57 @@
         <v>103.1</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1031</v>
       </c>
       <c r="E24" s="34"/>
       <c r="F24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.5618878005342838</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>33.5</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.3500000000000002E-2</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.4483197649334953</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1.4749551929631548</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.854720707656422E-2</v>
       </c>
       <c r="L24" s="34"/>
       <c r="M24" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1.4749551929631548</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-3.4483197649334953</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.175492821248977</v>
       </c>
       <c r="P24" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.0861171442861446</v>
       </c>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
       <c r="W24" s="22"/>
       <c r="X24" s="22"/>
     </row>
@@ -5683,57 +5714,57 @@
         <v>107.35</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.10735</v>
       </c>
       <c r="E25" s="34"/>
       <c r="F25" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.3041606886657107</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>37.75</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.7749999999999999E-2</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.366111523378347</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1.423083044034793</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.8736071668753306E-2</v>
       </c>
       <c r="L25" s="34"/>
       <c r="M25" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1.423083044034793</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-3.366111523378347</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.0251653502193325</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.7902562332498526</v>
       </c>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
       <c r="W25" s="22"/>
       <c r="X25" s="22"/>
     </row>
@@ -5748,57 +5779,57 @@
         <v>112.85</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.11284999999999999</v>
       </c>
       <c r="E26" s="34"/>
       <c r="F26" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.4037826478534967</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43.25</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.3249999999999997E-2</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.2673021275878709</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1.364013888199167</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.9181572207855317E-2</v>
       </c>
       <c r="L26" s="34"/>
       <c r="M26" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1.364013888199167</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-3.2673021275878709</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.8605338872002097</v>
       </c>
       <c r="P26" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.4566454789725425</v>
       </c>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
       <c r="W26" s="22"/>
       <c r="X26" s="22"/>
     </row>
@@ -5813,57 +5844,57 @@
         <v>116.85</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.11685</v>
       </c>
       <c r="E27" s="34"/>
       <c r="F27" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.25</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>47.25</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.725E-2</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.2041199826559246</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1.3255981871547182</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.9428657591532728E-2</v>
       </c>
       <c r="L27" s="34"/>
       <c r="M27" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1.3255981871547182</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-3.2041199826559246</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.7572105537878753</v>
       </c>
       <c r="P27" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.2473756404349006</v>
       </c>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
       <c r="W27" s="22"/>
       <c r="X27" s="22"/>
     </row>
@@ -5878,41 +5909,41 @@
         <v>119.8</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1198</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.6857688634192938</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>50.2</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0200000000000002E-2</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.1748486416645854</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1.2992962828549806</v>
       </c>
       <c r="K28" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.8978473549885907E-2</v>
       </c>
       <c r="L28" s="35"/>
       <c r="M28" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1.2992962828549806</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-3.1748486416645854</v>
       </c>
       <c r="O28" s="2">
@@ -5920,15 +5951,15 @@
         <v>1.6881708306407697</v>
       </c>
       <c r="P28" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.1250690387419802</v>
       </c>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
       <c r="W28" s="22"/>
       <c r="X28" s="22"/>
     </row>
@@ -5949,17 +5980,31 @@
         <f>AVERAGE(K19:K28)</f>
         <v>1.8782072293982439E-2</v>
       </c>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
+      <c r="L29" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="45">
+        <f>SUM(M19:M28)</f>
+        <v>-14.011787422956004</v>
+      </c>
+      <c r="N29" s="45">
+        <f t="shared" ref="N29:P29" si="23">SUM(N19:N28)</f>
+        <v>-33.322853614059468</v>
+      </c>
+      <c r="O29" s="45">
+        <f t="shared" si="23"/>
+        <v>19.793072091169016</v>
+      </c>
+      <c r="P29" s="45">
+        <f t="shared" si="23"/>
+        <v>46.941005528531207</v>
+      </c>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
       <c r="W29" s="22"/>
       <c r="X29" s="22"/>
     </row>
@@ -6015,7 +6060,7 @@
       <c r="O36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P36" s="44">
+      <c r="P36" s="43">
         <f>K29</f>
         <v>1.8782072293982439E-2</v>
       </c>
@@ -6025,15 +6070,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="32">
     <mergeCell ref="L18:L28"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="A29:I29"/>
-    <mergeCell ref="L29:P29"/>
     <mergeCell ref="E18:E28"/>
     <mergeCell ref="E3:E13"/>
-    <mergeCell ref="L14:P14"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="K17:K18"/>

--- a/lab11/Lab-flu-11.xlsx
+++ b/lab11/Lab-flu-11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1C0001-C23F-4FEA-B042-90A6D32E37E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA99A0AB-F698-41A6-9BCE-F3F6386A4595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD930733-D6D9-0543-9D83-32F9058366BC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>t(s)</t>
   </si>
@@ -164,6 +164,12 @@
   <si>
     <t>ผลรวม</t>
   </si>
+  <si>
+    <t>การทดลองที่</t>
+  </si>
+  <si>
+    <t>Q=CH^m</t>
+  </si>
 </sst>
 </file>
 
@@ -183,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +259,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,6 +445,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -454,22 +469,10 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -517,12 +520,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -532,8 +529,56 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="188" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3889,7 +3934,7 @@
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>716280</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
@@ -4258,10 +4303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDF6C7A-DED1-924B-901B-0FA50C1931C6}">
-  <dimension ref="A1:AF36"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4273,83 +4318,89 @@
     <col min="7" max="8" width="10.6328125" customWidth="1"/>
     <col min="9" max="10" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.6328125" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.90625" customWidth="1"/>
-    <col min="21" max="21" width="9.81640625" customWidth="1"/>
-    <col min="22" max="22" width="10.36328125" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="15" max="15" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.90625" customWidth="1"/>
+    <col min="20" max="21" width="0" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="49"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="14">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="15">
         <v>99.1</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="36" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="36" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="49"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -4362,56 +4413,62 @@
       <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="36"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="12" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="Q3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="R3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="S3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="V3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="W3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="X3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Y3" s="13" t="s">
         <v>26</v>
       </c>
+      <c r="Z3" s="60" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -4425,7 +4482,7 @@
         <f>C4/1000</f>
         <v>0.12329999999999999</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="2">
         <f>(A4/B4)*10</f>
         <v>1.9595035924232527</v>
@@ -4450,60 +4507,64 @@
         <f>(F4*(10^-4))/((9.81^0.5)*(H4^2.5))</f>
         <v>0.68670964211303187</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="2">
+      <c r="L4" s="43"/>
+      <c r="M4" s="39">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
         <f>J4</f>
         <v>-1.6161846340195687</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <f>I4</f>
         <v>-3.7078539359785987</v>
       </c>
-      <c r="O4" s="2">
-        <f>M4^2</f>
+      <c r="P4" s="2">
+        <f>N4^2</f>
         <v>2.6120527712409674</v>
       </c>
-      <c r="P4" s="2">
-        <f>M4*N4</f>
+      <c r="Q4" s="2">
+        <f>N4*O4</f>
         <v>5.992576556517589</v>
-      </c>
-      <c r="Q4" s="2">
-        <f>(SUM(M4:M13))/10</f>
-        <v>-1.5103087604893028</v>
       </c>
       <c r="R4" s="2">
         <f>(SUM(N4:N13))/10</f>
+        <v>-1.5103087604893028</v>
+      </c>
+      <c r="S4" s="2">
+        <f>(SUM(O4:O13))/10</f>
         <v>-3.4793042755685391</v>
       </c>
-      <c r="S4" s="2">
+      <c r="T4" s="2">
+        <f>SUM(Q4:Q13)</f>
+        <v>52.725912508637954</v>
+      </c>
+      <c r="U4" s="2">
         <f>SUM(P4:P13)</f>
-        <v>52.725912508637954</v>
-      </c>
-      <c r="T4" s="2">
-        <f>SUM(O4:O13)</f>
         <v>22.898747858352884</v>
       </c>
-      <c r="U4" s="2">
-        <f>Q4^2</f>
+      <c r="V4" s="2">
+        <f>R4^2</f>
         <v>2.2810325520107342</v>
       </c>
-      <c r="V4" s="8">
-        <f>((S4/10)-(Q4*R4))/((T4/10)-U4)</f>
+      <c r="W4" s="8">
+        <f>((T4/10)-(R4*S4))/((U4/10)-V4)</f>
         <v>2.009393035434571</v>
       </c>
-      <c r="W4" s="8">
-        <f>R4-(V4*Q4)</f>
+      <c r="X4" s="8">
+        <f>S4-(W4*R4)</f>
         <v>-0.44450037088551442</v>
       </c>
-      <c r="X4" s="8">
-        <f>10^W4</f>
+      <c r="Y4" s="8">
+        <f>10^X4</f>
         <v>0.35933508988472457</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="Z4" s="59"/>
+      <c r="AG4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -4517,7 +4578,7 @@
         <f t="shared" ref="D5:D13" si="0">C5/1000</f>
         <v>0.12675</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="2">
         <f t="shared" ref="F5:F13" si="1">(A5/B5)*10</f>
         <v>2.6938042502244839</v>
@@ -4542,33 +4603,37 @@
         <f>(F5*(10^-4))/((9.81^0.5)*(H5^2.5))</f>
         <v>0.6765403301424916</v>
       </c>
-      <c r="L5" s="34"/>
-      <c r="M5" s="2">
-        <f t="shared" ref="M5:M13" si="6">J5</f>
+      <c r="L5" s="43"/>
+      <c r="M5" s="39">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2">
+        <f>J5</f>
         <v>-1.5583048643592829</v>
       </c>
-      <c r="N5" s="2">
-        <f t="shared" ref="N5:N13" si="7">I5</f>
+      <c r="O5" s="2">
+        <f>I5</f>
         <v>-3.5696339661988064</v>
       </c>
-      <c r="O5" s="2">
-        <f t="shared" ref="O5:O12" si="8">M5^2</f>
+      <c r="P5" s="2">
+        <f t="shared" ref="P5:P12" si="6">N5^2</f>
         <v>2.4283140502858034</v>
       </c>
-      <c r="P5" s="2">
-        <f t="shared" ref="P5:P13" si="9">M5*N5</f>
+      <c r="Q5" s="2">
+        <f t="shared" ref="Q5:Q13" si="7">N5*O5</f>
         <v>5.5625779735097201</v>
       </c>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="49"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>12</v>
       </c>
@@ -4582,7 +4647,7 @@
         <f t="shared" si="0"/>
         <v>0.1308</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="2">
         <f t="shared" si="1"/>
         <v>3.3426183844011144</v>
@@ -4604,36 +4669,40 @@
         <v>-1.4989407377822483</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" ref="K6:K13" si="10">(F6*(10^-4))/((9.81^0.5)*(H6^2.5))</f>
+        <f>(F6*(10^-4))/((9.81^0.5)*(H6^2.5))</f>
         <v>0.59649133364235474</v>
       </c>
-      <c r="L6" s="34"/>
-      <c r="M6" s="2">
+      <c r="L6" s="43"/>
+      <c r="M6" s="39">
+        <v>3</v>
+      </c>
+      <c r="N6" s="2">
+        <f>J6</f>
+        <v>-1.4989407377822483</v>
+      </c>
+      <c r="O6" s="2">
+        <f>I6</f>
+        <v>-3.4759132025306942</v>
+      </c>
+      <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>-1.4989407377822483</v>
-      </c>
-      <c r="N6" s="2">
+        <v>2.246823335383191</v>
+      </c>
+      <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>-3.4759132025306942</v>
-      </c>
-      <c r="O6" s="2">
-        <f t="shared" si="8"/>
-        <v>2.246823335383191</v>
-      </c>
-      <c r="P6" s="2">
-        <f t="shared" si="9"/>
         <v>5.2101879002684166</v>
       </c>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="49"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>15</v>
       </c>
@@ -4647,7 +4716,7 @@
         <f t="shared" si="0"/>
         <v>0.1343</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="2">
         <f t="shared" si="1"/>
         <v>4.2589437819420786</v>
@@ -4669,36 +4738,40 @@
         <v>-1.4534573365218688</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="10"/>
+        <f>(F7*(10^-4))/((9.81^0.5)*(H7^2.5))</f>
         <v>0.58493922455812764</v>
       </c>
-      <c r="L7" s="34"/>
-      <c r="M7" s="2">
+      <c r="L7" s="43"/>
+      <c r="M7" s="39">
+        <v>4</v>
+      </c>
+      <c r="N7" s="2">
+        <f>J7</f>
+        <v>-1.4534573365218688</v>
+      </c>
+      <c r="O7" s="2">
+        <f>I7</f>
+        <v>-3.370698092575577</v>
+      </c>
+      <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>-1.4534573365218688</v>
-      </c>
-      <c r="N7" s="2">
+        <v>2.1125382290892452</v>
+      </c>
+      <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>-3.370698092575577</v>
-      </c>
-      <c r="O7" s="2">
-        <f t="shared" si="8"/>
-        <v>2.1125382290892452</v>
-      </c>
-      <c r="P7" s="2">
-        <f t="shared" si="9"/>
         <v>4.8991658718542412</v>
       </c>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="49"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>15</v>
       </c>
@@ -4712,7 +4785,7 @@
         <f t="shared" si="0"/>
         <v>0.1371</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="2">
         <f t="shared" si="1"/>
         <v>4.8987589810581316</v>
@@ -4734,36 +4807,40 @@
         <v>-1.4202164033831899</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="10"/>
+        <f>(F8*(10^-4))/((9.81^0.5)*(H8^2.5))</f>
         <v>0.55563881631816059</v>
       </c>
-      <c r="L8" s="34"/>
-      <c r="M8" s="2">
+      <c r="L8" s="43"/>
+      <c r="M8" s="39">
+        <v>5</v>
+      </c>
+      <c r="N8" s="2">
+        <f>J8</f>
+        <v>-1.4202164033831899</v>
+      </c>
+      <c r="O8" s="2">
+        <f>I8</f>
+        <v>-3.3099139273065608</v>
+      </c>
+      <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>-1.4202164033831899</v>
-      </c>
-      <c r="N8" s="2">
+        <v>2.0170146324386837</v>
+      </c>
+      <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>-3.3099139273065608</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" si="8"/>
-        <v>2.0170146324386837</v>
-      </c>
-      <c r="P8" s="2">
-        <f t="shared" si="9"/>
         <v>4.700794053347253</v>
       </c>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="49"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>21</v>
       </c>
@@ -4777,7 +4854,7 @@
         <f t="shared" si="0"/>
         <v>0.14124999999999999</v>
       </c>
-      <c r="E9" s="34"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="2">
         <f t="shared" si="1"/>
         <v>6.4615384615384617</v>
@@ -4799,36 +4876,40 @@
         <v>-1.3752024210392388</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="10"/>
+        <f>(F9*(10^-4))/((9.81^0.5)*(H9^2.5))</f>
         <v>0.56559750194964142</v>
       </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="2">
+      <c r="L9" s="43"/>
+      <c r="M9" s="39">
+        <v>6</v>
+      </c>
+      <c r="N9" s="2">
+        <f>J9</f>
+        <v>-1.3752024210392388</v>
+      </c>
+      <c r="O9" s="2">
+        <f>I9</f>
+        <v>-3.1896640662449549</v>
+      </c>
+      <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>-1.3752024210392388</v>
-      </c>
-      <c r="N9" s="2">
+        <v>1.8911816988321839</v>
+      </c>
+      <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>-3.1896640662449549</v>
-      </c>
-      <c r="O9" s="2">
-        <f t="shared" si="8"/>
-        <v>1.8911816988321839</v>
-      </c>
-      <c r="P9" s="2">
-        <f t="shared" si="9"/>
         <v>4.3864337462019254</v>
       </c>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="49"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>18</v>
       </c>
@@ -4842,7 +4923,7 @@
         <f t="shared" si="0"/>
         <v>0.13900000000000001</v>
       </c>
-      <c r="E10" s="34"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
         <v>5.625</v>
@@ -4864,36 +4945,40 @@
         <v>-1.3990271043132516</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="10"/>
+        <f>(F10*(10^-4))/((9.81^0.5)*(H10^2.5))</f>
         <v>0.56474940739429236</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="2">
+      <c r="L10" s="43"/>
+      <c r="M10" s="39">
+        <v>7</v>
+      </c>
+      <c r="N10" s="2">
+        <f>J10</f>
+        <v>-1.3990271043132516</v>
+      </c>
+      <c r="O10" s="2">
+        <f>I10</f>
+        <v>-3.2498774732165998</v>
+      </c>
+      <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>-1.3990271043132516</v>
-      </c>
-      <c r="N10" s="2">
+        <v>1.9572768386031218</v>
+      </c>
+      <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>-3.2498774732165998</v>
-      </c>
-      <c r="O10" s="2">
-        <f t="shared" si="8"/>
-        <v>1.9572768386031218</v>
-      </c>
-      <c r="P10" s="2">
-        <f t="shared" si="9"/>
         <v>4.5466666707270864</v>
       </c>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="49"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -4907,7 +4992,7 @@
         <f t="shared" si="0"/>
         <v>0.1285</v>
       </c>
-      <c r="E11" s="34"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="2">
         <f t="shared" si="1"/>
         <v>3.0848329048843186</v>
@@ -4929,36 +5014,40 @@
         <v>-1.5316526695878425</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="10"/>
+        <f>(F11*(10^-4))/((9.81^0.5)*(H11^2.5))</f>
         <v>0.66455176378540881</v>
       </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="2">
+      <c r="L11" s="43"/>
+      <c r="M11" s="39">
+        <v>8</v>
+      </c>
+      <c r="N11" s="2">
+        <f>J11</f>
+        <v>-1.5316526695878425</v>
+      </c>
+      <c r="O11" s="2">
+        <f>I11</f>
+        <v>-3.5107683552780831</v>
+      </c>
+      <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>-1.5316526695878425</v>
-      </c>
-      <c r="N11" s="2">
+        <v>2.3459599002555649</v>
+      </c>
+      <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>-3.5107683552780831</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" si="8"/>
-        <v>2.3459599002555649</v>
-      </c>
-      <c r="P11" s="2">
-        <f t="shared" si="9"/>
         <v>5.3772777236661948</v>
       </c>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="49"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -4972,7 +5061,7 @@
         <f t="shared" si="0"/>
         <v>0.126</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
         <v>2.4725274725274726</v>
@@ -4994,36 +5083,40 @@
         <v>-1.5702477199975919</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="10"/>
+        <f>(F12*(10^-4))/((9.81^0.5)*(H12^2.5))</f>
         <v>0.6651596897834382</v>
       </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="2">
+      <c r="L12" s="43"/>
+      <c r="M12" s="39">
+        <v>9</v>
+      </c>
+      <c r="N12" s="2">
+        <f>J12</f>
+        <v>-1.5702477199975919</v>
+      </c>
+      <c r="O12" s="2">
+        <f>I12</f>
+        <v>-3.6068588742097312</v>
+      </c>
+      <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>-1.5702477199975919</v>
-      </c>
-      <c r="N12" s="2">
+        <v>2.465677902157636</v>
+      </c>
+      <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>-3.6068588742097312</v>
-      </c>
-      <c r="O12" s="2">
-        <f t="shared" si="8"/>
-        <v>2.465677902157636</v>
-      </c>
-      <c r="P12" s="2">
-        <f t="shared" si="9"/>
         <v>5.6636619235809116</v>
       </c>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="49"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -5037,7 +5130,7 @@
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="E13" s="35"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
         <v>1.5781167806417673</v>
@@ -5059,45 +5152,49 @@
         <v>-1.6798537138889458</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="10"/>
+        <f>(F13*(10^-4))/((9.81^0.5)*(H13^2.5))</f>
         <v>0.79788246162732246</v>
       </c>
-      <c r="L13" s="35"/>
-      <c r="M13" s="2">
-        <f t="shared" si="6"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="39">
+        <v>10</v>
+      </c>
+      <c r="N13" s="2">
+        <f>J13</f>
         <v>-1.6798537138889458</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
+        <f>I13</f>
+        <v>-3.8018608621457806</v>
+      </c>
+      <c r="P13" s="2">
+        <f>N13^2</f>
+        <v>2.8219085000664843</v>
+      </c>
+      <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>-3.8018608621457806</v>
-      </c>
-      <c r="O13" s="2">
-        <f>M13^2</f>
-        <v>2.8219085000664843</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="9"/>
         <v>6.3865700889646186</v>
       </c>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="49"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="1" t="s">
         <v>30</v>
       </c>
@@ -5105,129 +5202,137 @@
         <f>AVERAGE(K4:K13)</f>
         <v>0.63582601713142695</v>
       </c>
-      <c r="L14" s="44" t="s">
+      <c r="L14" s="45"/>
+      <c r="M14" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="45">
-        <f>SUM(M4:M13)</f>
+      <c r="N14" s="41">
+        <f>SUM(N4:N13)</f>
         <v>-15.103087604893028</v>
       </c>
-      <c r="N14" s="45">
-        <f t="shared" ref="N14:P14" si="11">SUM(N4:N13)</f>
+      <c r="O14" s="41">
+        <f t="shared" ref="O14:Q14" si="8">SUM(O4:O13)</f>
         <v>-34.793042755685391</v>
       </c>
-      <c r="O14" s="45">
-        <f t="shared" si="11"/>
+      <c r="P14" s="41">
+        <f t="shared" si="8"/>
         <v>22.898747858352884</v>
       </c>
-      <c r="P14" s="45">
-        <f t="shared" si="11"/>
+      <c r="Q14" s="41">
+        <f t="shared" si="8"/>
         <v>52.725912508637954</v>
       </c>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="49"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="49"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="49"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="16">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="17">
         <v>69.599999999999994</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="36" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="36" t="s">
+      <c r="H17" s="37"/>
+      <c r="I17" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="36" t="s">
+      <c r="J17" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="L17" s="32"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="49"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>3</v>
       </c>
@@ -5240,56 +5345,62 @@
       <c r="D18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="36"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="11" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="12" t="s">
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="O18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="P18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="Q18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="R18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="R18" s="12" t="s">
+      <c r="S18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="S18" s="12" t="s">
+      <c r="T18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="12" t="s">
+      <c r="U18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="U18" s="13" t="s">
+      <c r="V18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="V18" s="12" t="s">
+      <c r="W18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="W18" s="12" t="s">
+      <c r="X18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="X18" s="12" t="s">
+      <c r="Y18" s="13" t="s">
         <v>26</v>
       </c>
+      <c r="Z18" s="60" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>21</v>
       </c>
@@ -5303,7 +5414,7 @@
         <f>C19/1000</f>
         <v>0.1187</v>
       </c>
-      <c r="E19" s="34"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="2">
         <f>(A19/B19)*10</f>
         <v>6.3578564940962758</v>
@@ -5328,57 +5439,61 @@
         <f>(F19*(10^-4))/((9.81^(1/2))*(H19^(3/2)))</f>
         <v>1.8657522720766123E-2</v>
       </c>
-      <c r="L19" s="34"/>
-      <c r="M19" s="2">
+      <c r="L19" s="46"/>
+      <c r="M19" s="39">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
         <f>J19</f>
         <v>-1.3089185078770313</v>
       </c>
-      <c r="N19" s="2">
+      <c r="O19" s="2">
         <f>I19</f>
         <v>-3.196689278957495</v>
       </c>
-      <c r="O19" s="2">
-        <f>M19^2</f>
+      <c r="P19" s="2">
+        <f>N19^2</f>
         <v>1.7132676602630341</v>
       </c>
-      <c r="P19" s="2">
-        <f>M19*N19</f>
+      <c r="Q19" s="2">
+        <f>N19*O19</f>
         <v>4.1842057611595473</v>
-      </c>
-      <c r="Q19" s="2">
-        <f>(SUM(M19:M28))/10</f>
-        <v>-1.4011787422956004</v>
       </c>
       <c r="R19" s="2">
         <f>(SUM(N19:N28))/10</f>
+        <v>-1.4011787422956004</v>
+      </c>
+      <c r="S19" s="2">
+        <f>(SUM(O19:O28))/10</f>
         <v>-3.3322853614059467</v>
       </c>
-      <c r="S19" s="2">
+      <c r="T19" s="2">
+        <f>SUM(Q19:Q28)</f>
+        <v>46.941005528531207</v>
+      </c>
+      <c r="U19" s="2">
         <f>SUM(P19:P28)</f>
-        <v>46.941005528531207</v>
-      </c>
-      <c r="T19" s="2">
-        <f>SUM(O19:O28)</f>
         <v>19.793072091169016</v>
       </c>
-      <c r="U19" s="2">
-        <f>Q19^2</f>
+      <c r="V19" s="2">
+        <f>R19^2</f>
         <v>1.9633018678610805</v>
       </c>
-      <c r="V19" s="8">
-        <f>((S19/10)-(Q19*R19))/((T19/10)-U19)</f>
+      <c r="W19" s="8">
+        <f>((T19/10)-(R19*S19))/((U19/10)-V19)</f>
         <v>1.5603004515266661</v>
       </c>
-      <c r="W19" s="8">
-        <f>R19-(V19*Q19)</f>
+      <c r="X19" s="8">
+        <f>S19-(W19*R19)</f>
         <v>-1.1460255371325552</v>
       </c>
-      <c r="X19" s="9">
-        <f>10^W19</f>
+      <c r="Y19" s="9">
+        <f>10^X19</f>
         <v>7.1445431391162648E-2</v>
       </c>
+      <c r="Z19" s="59"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -5389,61 +5504,65 @@
         <v>120.75</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" ref="D20:D28" si="12">C20/1000</f>
+        <f t="shared" ref="D20:D28" si="9">C20/1000</f>
         <v>0.12075</v>
       </c>
-      <c r="E20" s="34"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="2">
-        <f t="shared" ref="F20:F28" si="13">(A20/B20)*10</f>
+        <f t="shared" ref="F20:F28" si="10">(A20/B20)*10</f>
         <v>6.878480183426138</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" ref="G20:G28" si="14">C20-B$17</f>
+        <f t="shared" ref="G20:G28" si="11">C20-B$17</f>
         <v>51.150000000000006</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" ref="H20:H28" si="15">G20/1000</f>
+        <f t="shared" ref="H20:H28" si="12">G20/1000</f>
         <v>5.1150000000000008E-2</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" ref="I20:I28" si="16">LOG10(F20*10^-4)</f>
+        <f t="shared" ref="I20:I28" si="13">LOG10(F20*10^-4)</f>
         <v>-3.1625075095647426</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" ref="J20:J28" si="17">LOG10(H20)</f>
+        <f t="shared" ref="J20:J28" si="14">LOG10(H20)</f>
         <v>-1.2911543619518209</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" ref="K20:K28" si="18">(F20*(10^-4))/((9.81^(1/2))*(H20^(3/2)))</f>
+        <f>(F20*(10^-4))/((9.81^(1/2))*(H20^(3/2)))</f>
         <v>1.898407887737948E-2</v>
       </c>
-      <c r="L20" s="34"/>
-      <c r="M20" s="2">
-        <f t="shared" ref="M20:M28" si="19">J20</f>
+      <c r="L20" s="46"/>
+      <c r="M20" s="39">
+        <v>2</v>
+      </c>
+      <c r="N20" s="2">
+        <f>J20</f>
         <v>-1.2911543619518209</v>
       </c>
-      <c r="N20" s="2">
-        <f t="shared" ref="N20:N28" si="20">I20</f>
+      <c r="O20" s="2">
+        <f>I20</f>
         <v>-3.1625075095647426</v>
       </c>
-      <c r="O20" s="2">
-        <f t="shared" ref="O20:O27" si="21">M20^2</f>
+      <c r="P20" s="2">
+        <f t="shared" ref="P20:P27" si="15">N20^2</f>
         <v>1.6670795863872137</v>
       </c>
-      <c r="P20" s="2">
-        <f t="shared" ref="P20:P28" si="22">M20*N20</f>
+      <c r="Q20" s="2">
+        <f t="shared" ref="Q20:Q28" si="16">N20*O20</f>
         <v>4.0832853656799069</v>
       </c>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="49"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>24</v>
       </c>
@@ -5454,61 +5573,65 @@
         <v>120.85</v>
       </c>
       <c r="D21" s="2">
+        <f t="shared" si="9"/>
+        <v>0.12085</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="2">
+        <f t="shared" si="10"/>
+        <v>6.8945705257110026</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="11"/>
+        <v>51.25</v>
+      </c>
+      <c r="H21" s="2">
         <f t="shared" si="12"/>
-        <v>0.12085</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="2">
+        <v>5.1249999999999997E-2</v>
+      </c>
+      <c r="I21" s="2">
         <f t="shared" si="13"/>
-        <v>6.8945705257110026</v>
-      </c>
-      <c r="G21" s="7">
+        <v>-3.1614927815726821</v>
+      </c>
+      <c r="J21" s="2">
         <f t="shared" si="14"/>
-        <v>51.25</v>
-      </c>
-      <c r="H21" s="2">
+        <v>-1.2903061302722081</v>
+      </c>
+      <c r="K21" s="8">
+        <f>(F21*(10^-4))/((9.81^(1/2))*(H21^(3/2)))</f>
+        <v>1.8972821034215496E-2</v>
+      </c>
+      <c r="L21" s="46"/>
+      <c r="M21" s="39">
+        <v>3</v>
+      </c>
+      <c r="N21" s="2">
+        <f>J21</f>
+        <v>-1.2903061302722081</v>
+      </c>
+      <c r="O21" s="2">
+        <f>I21</f>
+        <v>-3.1614927815726821</v>
+      </c>
+      <c r="P21" s="2">
         <f t="shared" si="15"/>
-        <v>5.1249999999999997E-2</v>
-      </c>
-      <c r="I21" s="2">
+        <v>1.6648899098180405</v>
+      </c>
+      <c r="Q21" s="2">
         <f t="shared" si="16"/>
-        <v>-3.1614927815726821</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="17"/>
-        <v>-1.2903061302722081</v>
-      </c>
-      <c r="K21" s="8">
-        <f t="shared" si="18"/>
-        <v>1.8972821034215496E-2</v>
-      </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="2">
-        <f t="shared" si="19"/>
-        <v>-1.2903061302722081</v>
-      </c>
-      <c r="N21" s="2">
-        <f t="shared" si="20"/>
-        <v>-3.1614927815726821</v>
-      </c>
-      <c r="O21" s="2">
-        <f t="shared" si="21"/>
-        <v>1.6648899098180405</v>
-      </c>
-      <c r="P21" s="2">
-        <f t="shared" si="22"/>
         <v>4.079293516874567</v>
       </c>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="49"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -5519,61 +5642,65 @@
         <v>90.05</v>
       </c>
       <c r="D22" s="2">
+        <f t="shared" si="9"/>
+        <v>9.0049999999999991E-2</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="2">
+        <f t="shared" si="10"/>
+        <v>1.6551724137931034</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="11"/>
+        <v>20.450000000000003</v>
+      </c>
+      <c r="H22" s="2">
         <f t="shared" si="12"/>
-        <v>9.0049999999999991E-2</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="2">
+        <v>2.0450000000000003E-2</v>
+      </c>
+      <c r="I22" s="2">
         <f t="shared" si="13"/>
-        <v>1.6551724137931034</v>
-      </c>
-      <c r="G22" s="7">
+        <v>-3.7811567605233689</v>
+      </c>
+      <c r="J22" s="2">
         <f t="shared" si="14"/>
-        <v>20.450000000000003</v>
-      </c>
-      <c r="H22" s="2">
+        <v>-1.6893066876566394</v>
+      </c>
+      <c r="K22" s="8">
+        <f>(F22*(10^-4))/((9.81^(1/2))*(H22^(3/2)))</f>
+        <v>1.8070441659229126E-2</v>
+      </c>
+      <c r="L22" s="46"/>
+      <c r="M22" s="39">
+        <v>4</v>
+      </c>
+      <c r="N22" s="2">
+        <f>J22</f>
+        <v>-1.6893066876566394</v>
+      </c>
+      <c r="O22" s="2">
+        <f>I22</f>
+        <v>-3.7811567605233689</v>
+      </c>
+      <c r="P22" s="2">
         <f t="shared" si="15"/>
-        <v>2.0450000000000003E-2</v>
-      </c>
-      <c r="I22" s="2">
+        <v>2.8537570849614466</v>
+      </c>
+      <c r="Q22" s="2">
         <f t="shared" si="16"/>
-        <v>-3.7811567605233689</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="17"/>
-        <v>-1.6893066876566394</v>
-      </c>
-      <c r="K22" s="8">
-        <f t="shared" si="18"/>
-        <v>1.8070441659229126E-2</v>
-      </c>
-      <c r="L22" s="34"/>
-      <c r="M22" s="2">
-        <f t="shared" si="19"/>
-        <v>-1.6893066876566394</v>
-      </c>
-      <c r="N22" s="2">
-        <f t="shared" si="20"/>
-        <v>-3.7811567605233689</v>
-      </c>
-      <c r="O22" s="2">
-        <f t="shared" si="21"/>
-        <v>2.8537570849614466</v>
-      </c>
-      <c r="P22" s="2">
-        <f t="shared" si="22"/>
         <v>6.3875334026302415</v>
       </c>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="49"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>12</v>
       </c>
@@ -5584,61 +5711,65 @@
         <v>98.1</v>
       </c>
       <c r="D23" s="2">
+        <f t="shared" si="9"/>
+        <v>9.8099999999999993E-2</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="2">
+        <f t="shared" si="10"/>
+        <v>2.7522935779816518</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="11"/>
+        <v>28.5</v>
+      </c>
+      <c r="H23" s="2">
         <f t="shared" si="12"/>
-        <v>9.8099999999999993E-2</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="2">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="I23" s="2">
         <f t="shared" si="13"/>
-        <v>2.7522935779816518</v>
-      </c>
-      <c r="G23" s="7">
+        <v>-3.5603052432209612</v>
+      </c>
+      <c r="J23" s="2">
         <f t="shared" si="14"/>
-        <v>28.5</v>
-      </c>
-      <c r="H23" s="2">
+        <v>-1.5451551399914898</v>
+      </c>
+      <c r="K23" s="8">
+        <f>(F23*(10^-4))/((9.81^(1/2))*(H23^(3/2)))</f>
+        <v>1.8263876553642665E-2</v>
+      </c>
+      <c r="L23" s="46"/>
+      <c r="M23" s="39">
+        <v>5</v>
+      </c>
+      <c r="N23" s="2">
+        <f>J23</f>
+        <v>-1.5451551399914898</v>
+      </c>
+      <c r="O23" s="2">
+        <f>I23</f>
+        <v>-3.5603052432209612</v>
+      </c>
+      <c r="P23" s="2">
         <f t="shared" si="15"/>
-        <v>2.8500000000000001E-2</v>
-      </c>
-      <c r="I23" s="2">
+        <v>2.3875044066421203</v>
+      </c>
+      <c r="Q23" s="2">
         <f t="shared" si="16"/>
-        <v>-3.5603052432209612</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="17"/>
-        <v>-1.5451551399914898</v>
-      </c>
-      <c r="K23" s="8">
-        <f t="shared" si="18"/>
-        <v>1.8263876553642665E-2</v>
-      </c>
-      <c r="L23" s="34"/>
-      <c r="M23" s="2">
-        <f t="shared" si="19"/>
-        <v>-1.5451551399914898</v>
-      </c>
-      <c r="N23" s="2">
-        <f t="shared" si="20"/>
-        <v>-3.5603052432209612</v>
-      </c>
-      <c r="O23" s="2">
-        <f t="shared" si="21"/>
-        <v>2.3875044066421203</v>
-      </c>
-      <c r="P23" s="2">
-        <f t="shared" si="22"/>
         <v>5.5012239465015194</v>
       </c>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="49"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>12</v>
       </c>
@@ -5649,61 +5780,65 @@
         <v>103.1</v>
       </c>
       <c r="D24" s="2">
+        <f t="shared" si="9"/>
+        <v>0.1031</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="2">
+        <f t="shared" si="10"/>
+        <v>3.5618878005342838</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="11"/>
+        <v>33.5</v>
+      </c>
+      <c r="H24" s="2">
         <f t="shared" si="12"/>
-        <v>0.1031</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="2">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="I24" s="2">
         <f t="shared" si="13"/>
-        <v>3.5618878005342838</v>
-      </c>
-      <c r="G24" s="7">
+        <v>-3.4483197649334953</v>
+      </c>
+      <c r="J24" s="2">
         <f t="shared" si="14"/>
-        <v>33.5</v>
-      </c>
-      <c r="H24" s="2">
+        <v>-1.4749551929631548</v>
+      </c>
+      <c r="K24" s="8">
+        <f>(F24*(10^-4))/((9.81^(1/2))*(H24^(3/2)))</f>
+        <v>1.854720707656422E-2</v>
+      </c>
+      <c r="L24" s="46"/>
+      <c r="M24" s="39">
+        <v>6</v>
+      </c>
+      <c r="N24" s="2">
+        <f>J24</f>
+        <v>-1.4749551929631548</v>
+      </c>
+      <c r="O24" s="2">
+        <f>I24</f>
+        <v>-3.4483197649334953</v>
+      </c>
+      <c r="P24" s="2">
         <f t="shared" si="15"/>
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="I24" s="2">
+        <v>2.175492821248977</v>
+      </c>
+      <c r="Q24" s="2">
         <f t="shared" si="16"/>
-        <v>-3.4483197649334953</v>
-      </c>
-      <c r="J24" s="2">
-        <f t="shared" si="17"/>
-        <v>-1.4749551929631548</v>
-      </c>
-      <c r="K24" s="8">
-        <f t="shared" si="18"/>
-        <v>1.854720707656422E-2</v>
-      </c>
-      <c r="L24" s="34"/>
-      <c r="M24" s="2">
-        <f t="shared" si="19"/>
-        <v>-1.4749551929631548</v>
-      </c>
-      <c r="N24" s="2">
-        <f t="shared" si="20"/>
-        <v>-3.4483197649334953</v>
-      </c>
-      <c r="O24" s="2">
-        <f t="shared" si="21"/>
-        <v>2.175492821248977</v>
-      </c>
-      <c r="P24" s="2">
-        <f t="shared" si="22"/>
         <v>5.0861171442861446</v>
       </c>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="49"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>15</v>
       </c>
@@ -5714,61 +5849,65 @@
         <v>107.35</v>
       </c>
       <c r="D25" s="2">
+        <f t="shared" si="9"/>
+        <v>0.10735</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="2">
+        <f t="shared" si="10"/>
+        <v>4.3041606886657107</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="11"/>
+        <v>37.75</v>
+      </c>
+      <c r="H25" s="2">
         <f t="shared" si="12"/>
-        <v>0.10735</v>
-      </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="2">
+        <v>3.7749999999999999E-2</v>
+      </c>
+      <c r="I25" s="2">
         <f t="shared" si="13"/>
-        <v>4.3041606886657107</v>
-      </c>
-      <c r="G25" s="7">
+        <v>-3.366111523378347</v>
+      </c>
+      <c r="J25" s="2">
         <f t="shared" si="14"/>
-        <v>37.75</v>
-      </c>
-      <c r="H25" s="2">
+        <v>-1.423083044034793</v>
+      </c>
+      <c r="K25" s="8">
+        <f>(F25*(10^-4))/((9.81^(1/2))*(H25^(3/2)))</f>
+        <v>1.8736071668753306E-2</v>
+      </c>
+      <c r="L25" s="46"/>
+      <c r="M25" s="39">
+        <v>7</v>
+      </c>
+      <c r="N25" s="2">
+        <f>J25</f>
+        <v>-1.423083044034793</v>
+      </c>
+      <c r="O25" s="2">
+        <f>I25</f>
+        <v>-3.366111523378347</v>
+      </c>
+      <c r="P25" s="2">
         <f t="shared" si="15"/>
-        <v>3.7749999999999999E-2</v>
-      </c>
-      <c r="I25" s="2">
+        <v>2.0251653502193325</v>
+      </c>
+      <c r="Q25" s="2">
         <f t="shared" si="16"/>
-        <v>-3.366111523378347</v>
-      </c>
-      <c r="J25" s="2">
-        <f t="shared" si="17"/>
-        <v>-1.423083044034793</v>
-      </c>
-      <c r="K25" s="8">
-        <f t="shared" si="18"/>
-        <v>1.8736071668753306E-2</v>
-      </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="2">
-        <f t="shared" si="19"/>
-        <v>-1.423083044034793</v>
-      </c>
-      <c r="N25" s="2">
-        <f t="shared" si="20"/>
-        <v>-3.366111523378347</v>
-      </c>
-      <c r="O25" s="2">
-        <f t="shared" si="21"/>
-        <v>2.0251653502193325</v>
-      </c>
-      <c r="P25" s="2">
-        <f t="shared" si="22"/>
         <v>4.7902562332498526</v>
       </c>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="49"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>18</v>
       </c>
@@ -5779,61 +5918,65 @@
         <v>112.85</v>
       </c>
       <c r="D26" s="2">
+        <f t="shared" si="9"/>
+        <v>0.11284999999999999</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="2">
+        <f t="shared" si="10"/>
+        <v>5.4037826478534967</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="11"/>
+        <v>43.25</v>
+      </c>
+      <c r="H26" s="2">
         <f t="shared" si="12"/>
-        <v>0.11284999999999999</v>
-      </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="2">
+        <v>4.3249999999999997E-2</v>
+      </c>
+      <c r="I26" s="2">
         <f t="shared" si="13"/>
-        <v>5.4037826478534967</v>
-      </c>
-      <c r="G26" s="7">
+        <v>-3.2673021275878709</v>
+      </c>
+      <c r="J26" s="2">
         <f t="shared" si="14"/>
-        <v>43.25</v>
-      </c>
-      <c r="H26" s="2">
+        <v>-1.364013888199167</v>
+      </c>
+      <c r="K26" s="8">
+        <f>(F26*(10^-4))/((9.81^(1/2))*(H26^(3/2)))</f>
+        <v>1.9181572207855317E-2</v>
+      </c>
+      <c r="L26" s="46"/>
+      <c r="M26" s="39">
+        <v>8</v>
+      </c>
+      <c r="N26" s="2">
+        <f>J26</f>
+        <v>-1.364013888199167</v>
+      </c>
+      <c r="O26" s="2">
+        <f>I26</f>
+        <v>-3.2673021275878709</v>
+      </c>
+      <c r="P26" s="2">
         <f t="shared" si="15"/>
-        <v>4.3249999999999997E-2</v>
-      </c>
-      <c r="I26" s="2">
+        <v>1.8605338872002097</v>
+      </c>
+      <c r="Q26" s="2">
         <f t="shared" si="16"/>
-        <v>-3.2673021275878709</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" si="17"/>
-        <v>-1.364013888199167</v>
-      </c>
-      <c r="K26" s="8">
-        <f t="shared" si="18"/>
-        <v>1.9181572207855317E-2</v>
-      </c>
-      <c r="L26" s="34"/>
-      <c r="M26" s="2">
-        <f t="shared" si="19"/>
-        <v>-1.364013888199167</v>
-      </c>
-      <c r="N26" s="2">
-        <f t="shared" si="20"/>
-        <v>-3.2673021275878709</v>
-      </c>
-      <c r="O26" s="2">
-        <f t="shared" si="21"/>
-        <v>1.8605338872002097</v>
-      </c>
-      <c r="P26" s="2">
-        <f t="shared" si="22"/>
         <v>4.4566454789725425</v>
       </c>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="49"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>21</v>
       </c>
@@ -5844,61 +5987,65 @@
         <v>116.85</v>
       </c>
       <c r="D27" s="2">
+        <f t="shared" si="9"/>
+        <v>0.11685</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="2">
+        <f t="shared" si="10"/>
+        <v>6.25</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="11"/>
+        <v>47.25</v>
+      </c>
+      <c r="H27" s="2">
         <f t="shared" si="12"/>
-        <v>0.11685</v>
-      </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="2">
+        <v>4.725E-2</v>
+      </c>
+      <c r="I27" s="2">
         <f t="shared" si="13"/>
-        <v>6.25</v>
-      </c>
-      <c r="G27" s="7">
+        <v>-3.2041199826559246</v>
+      </c>
+      <c r="J27" s="2">
         <f t="shared" si="14"/>
-        <v>47.25</v>
-      </c>
-      <c r="H27" s="2">
+        <v>-1.3255981871547182</v>
+      </c>
+      <c r="K27" s="8">
+        <f>(F27*(10^-4))/((9.81^(1/2))*(H27^(3/2)))</f>
+        <v>1.9428657591532728E-2</v>
+      </c>
+      <c r="L27" s="46"/>
+      <c r="M27" s="39">
+        <v>9</v>
+      </c>
+      <c r="N27" s="2">
+        <f>J27</f>
+        <v>-1.3255981871547182</v>
+      </c>
+      <c r="O27" s="2">
+        <f>I27</f>
+        <v>-3.2041199826559246</v>
+      </c>
+      <c r="P27" s="2">
         <f t="shared" si="15"/>
-        <v>4.725E-2</v>
-      </c>
-      <c r="I27" s="2">
+        <v>1.7572105537878753</v>
+      </c>
+      <c r="Q27" s="2">
         <f t="shared" si="16"/>
-        <v>-3.2041199826559246</v>
-      </c>
-      <c r="J27" s="2">
-        <f t="shared" si="17"/>
-        <v>-1.3255981871547182</v>
-      </c>
-      <c r="K27" s="8">
-        <f t="shared" si="18"/>
-        <v>1.9428657591532728E-2</v>
-      </c>
-      <c r="L27" s="34"/>
-      <c r="M27" s="2">
-        <f t="shared" si="19"/>
-        <v>-1.3255981871547182</v>
-      </c>
-      <c r="N27" s="2">
-        <f t="shared" si="20"/>
-        <v>-3.2041199826559246</v>
-      </c>
-      <c r="O27" s="2">
-        <f t="shared" si="21"/>
-        <v>1.7572105537878753</v>
-      </c>
-      <c r="P27" s="2">
-        <f t="shared" si="22"/>
         <v>4.2473756404349006</v>
       </c>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="49"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -5909,70 +6056,74 @@
         <v>119.8</v>
       </c>
       <c r="D28" s="2">
+        <f t="shared" si="9"/>
+        <v>0.1198</v>
+      </c>
+      <c r="E28" s="32"/>
+      <c r="F28" s="2">
+        <f t="shared" si="10"/>
+        <v>6.6857688634192938</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="11"/>
+        <v>50.2</v>
+      </c>
+      <c r="H28" s="2">
         <f t="shared" si="12"/>
-        <v>0.1198</v>
-      </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="2">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="I28" s="2">
         <f t="shared" si="13"/>
-        <v>6.6857688634192938</v>
-      </c>
-      <c r="G28" s="7">
+        <v>-3.1748486416645854</v>
+      </c>
+      <c r="J28" s="2">
         <f t="shared" si="14"/>
-        <v>50.2</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="15"/>
-        <v>5.0200000000000002E-2</v>
-      </c>
-      <c r="I28" s="2">
+        <v>-1.2992962828549806</v>
+      </c>
+      <c r="K28" s="8">
+        <f>(F28*(10^-4))/((9.81^(1/2))*(H28^(3/2)))</f>
+        <v>1.8978473549885907E-2</v>
+      </c>
+      <c r="L28" s="47"/>
+      <c r="M28" s="39">
+        <v>10</v>
+      </c>
+      <c r="N28" s="2">
+        <f>J28</f>
+        <v>-1.2992962828549806</v>
+      </c>
+      <c r="O28" s="2">
+        <f>I28</f>
+        <v>-3.1748486416645854</v>
+      </c>
+      <c r="P28" s="2">
+        <f>N28^2</f>
+        <v>1.6881708306407697</v>
+      </c>
+      <c r="Q28" s="2">
         <f t="shared" si="16"/>
-        <v>-3.1748486416645854</v>
-      </c>
-      <c r="J28" s="2">
-        <f t="shared" si="17"/>
-        <v>-1.2992962828549806</v>
-      </c>
-      <c r="K28" s="8">
-        <f t="shared" si="18"/>
-        <v>1.8978473549885907E-2</v>
-      </c>
-      <c r="L28" s="35"/>
-      <c r="M28" s="2">
-        <f t="shared" si="19"/>
-        <v>-1.2992962828549806</v>
-      </c>
-      <c r="N28" s="2">
-        <f t="shared" si="20"/>
-        <v>-3.1748486416645854</v>
-      </c>
-      <c r="O28" s="2">
-        <f>M28^2</f>
-        <v>1.6881708306407697</v>
-      </c>
-      <c r="P28" s="2">
-        <f t="shared" si="22"/>
         <v>4.1250690387419802</v>
       </c>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="49"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="39"/>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="36"/>
       <c r="J29" s="1" t="s">
         <v>30</v>
       </c>
@@ -5980,98 +6131,99 @@
         <f>AVERAGE(K19:K28)</f>
         <v>1.8782072293982439E-2</v>
       </c>
-      <c r="L29" s="44" t="s">
+      <c r="L29" s="48"/>
+      <c r="M29" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="M29" s="45">
-        <f>SUM(M19:M28)</f>
+      <c r="N29" s="41">
+        <f>SUM(N19:N28)</f>
         <v>-14.011787422956004</v>
       </c>
-      <c r="N29" s="45">
-        <f t="shared" ref="N29:P29" si="23">SUM(N19:N28)</f>
+      <c r="O29" s="41">
+        <f t="shared" ref="O29:Q29" si="17">SUM(O19:O28)</f>
         <v>-33.322853614059468</v>
       </c>
-      <c r="O29" s="45">
-        <f t="shared" si="23"/>
+      <c r="P29" s="41">
+        <f t="shared" si="17"/>
         <v>19.793072091169016</v>
       </c>
-      <c r="P29" s="45">
-        <f t="shared" si="23"/>
+      <c r="Q29" s="41">
+        <f t="shared" si="17"/>
         <v>46.941005528531207</v>
       </c>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="49"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N32" s="18" t="s">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O32" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N33" s="25" t="s">
+    <row r="33" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O33" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="P33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P33" s="5" t="s">
+      <c r="Q33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q33" s="5" t="s">
+      <c r="R33" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N34" s="26"/>
-      <c r="O34" s="6" t="s">
+    <row r="34" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O34" s="23"/>
+      <c r="P34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P34" s="4">
+      <c r="Q34" s="4">
         <f>K14</f>
         <v>0.63582601713142695</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="R34" s="4">
         <f>0.636/0.7542</f>
         <v>0.84327764518695314</v>
       </c>
     </row>
-    <row r="35" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N35" s="25" t="s">
+    <row r="35" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O35" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P35" s="5" t="s">
+      <c r="Q35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Q35" s="5" t="s">
+      <c r="R35" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N36" s="26"/>
-      <c r="O36" s="6" t="s">
+    <row r="36" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O36" s="23"/>
+      <c r="P36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P36" s="43">
+      <c r="Q36" s="38">
         <f>K29</f>
         <v>1.8782072293982439E-2</v>
       </c>
-      <c r="Q36" s="4">
-        <f>P36/0.028756</f>
+      <c r="R36" s="4">
+        <f>Q36/0.028756</f>
         <v>0.65315316087016406</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="L18:L28"/>
+  <mergeCells count="23">
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="A29:I29"/>
@@ -6088,21 +6240,13 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C16:E17"/>
-    <mergeCell ref="A15:V15"/>
-    <mergeCell ref="F16:V16"/>
-    <mergeCell ref="L17:V17"/>
     <mergeCell ref="C1:E2"/>
-    <mergeCell ref="F1:V1"/>
-    <mergeCell ref="L2:V2"/>
-    <mergeCell ref="L3:L13"/>
-    <mergeCell ref="Q5:V14"/>
+    <mergeCell ref="F1:W1"/>
+    <mergeCell ref="M2:W2"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="W5:X17"/>
-    <mergeCell ref="W1:X2"/>
-    <mergeCell ref="W20:X29"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="Q20:V29"/>
+    <mergeCell ref="X1:Y2"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/lab11/Lab-flu-11.xlsx
+++ b/lab11/Lab-flu-11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA99A0AB-F698-41A6-9BCE-F3F6386A4595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00458E5D-679D-4524-9BD9-B319DFB2F090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD930733-D6D9-0543-9D83-32F9058366BC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD930733-D6D9-0543-9D83-32F9058366BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4305,8 +4305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDF6C7A-DED1-924B-901B-0FA50C1931C6}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/lab11/Lab-flu-11.xlsx
+++ b/lab11/Lab-flu-11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00458E5D-679D-4524-9BD9-B319DFB2F090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543AA064-66C3-4F3B-8D29-EA961066DF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD930733-D6D9-0543-9D83-32F9058366BC}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -469,60 +469,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="188" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -563,10 +509,9 @@
     <xf numFmtId="188" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -579,6 +524,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3893,15 +3892,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>34289</xdr:colOff>
+      <xdr:colOff>34288</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>70486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>188595</xdr:rowOff>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4305,8 +4304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDF6C7A-DED1-924B-901B-0FA50C1931C6}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="E34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4329,76 +4328,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="49"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="31"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="15">
         <v>99.1</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="33" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="33" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="49"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -4413,17 +4412,17 @@
       <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="33"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
       <c r="L3" s="12"/>
       <c r="M3" s="13" t="s">
         <v>42</v>
@@ -4464,7 +4463,7 @@
       <c r="Y3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="60" t="s">
+      <c r="Z3" s="41" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4482,7 +4481,7 @@
         <f>C4/1000</f>
         <v>0.12329999999999999</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="2">
         <f>(A4/B4)*10</f>
         <v>1.9595035924232527</v>
@@ -4504,19 +4503,19 @@
         <v>-1.6161846340195687</v>
       </c>
       <c r="K4" s="2">
-        <f>(F4*(10^-4))/((9.81^0.5)*(H4^2.5))</f>
+        <f t="shared" ref="K4:K13" si="0">(F4*(10^-4))/((9.81^0.5)*(H4^2.5))</f>
         <v>0.68670964211303187</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="39">
+      <c r="L4" s="25"/>
+      <c r="M4" s="21">
         <v>1</v>
       </c>
       <c r="N4" s="2">
-        <f>J4</f>
+        <f t="shared" ref="N4:N13" si="1">J4</f>
         <v>-1.6161846340195687</v>
       </c>
       <c r="O4" s="2">
-        <f>I4</f>
+        <f t="shared" ref="O4:O13" si="2">I4</f>
         <v>-3.7078539359785987</v>
       </c>
       <c r="P4" s="2">
@@ -4559,7 +4558,7 @@
         <f>10^X4</f>
         <v>0.35933508988472457</v>
       </c>
-      <c r="Z4" s="59"/>
+      <c r="Z4" s="40"/>
       <c r="AG4" t="s">
         <v>24</v>
       </c>
@@ -4575,63 +4574,63 @@
         <v>126.75</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D13" si="0">C5/1000</f>
+        <f t="shared" ref="D5:D13" si="3">C5/1000</f>
         <v>0.12675</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F13" si="1">(A5/B5)*10</f>
+        <f t="shared" ref="F5:F13" si="4">(A5/B5)*10</f>
         <v>2.6938042502244839</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" ref="G5:G13" si="2">C5-B$2</f>
+        <f t="shared" ref="G5:G13" si="5">C5-B$2</f>
         <v>27.650000000000006</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" ref="H5:H13" si="3">G5/1000</f>
+        <f t="shared" ref="H5:H13" si="6">G5/1000</f>
         <v>2.7650000000000004E-2</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I5:I13" si="4">LOG10(F5*(10^-4))</f>
+        <f t="shared" ref="I5:I13" si="7">LOG10(F5*(10^-4))</f>
         <v>-3.5696339661988064</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" ref="J5:J13" si="5">LOG10(H5)</f>
+        <f t="shared" ref="J5:J13" si="8">LOG10(H5)</f>
         <v>-1.5583048643592829</v>
       </c>
       <c r="K5" s="2">
-        <f>(F5*(10^-4))/((9.81^0.5)*(H5^2.5))</f>
+        <f t="shared" si="0"/>
         <v>0.6765403301424916</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="39">
+      <c r="L5" s="25"/>
+      <c r="M5" s="21">
         <v>2</v>
       </c>
       <c r="N5" s="2">
-        <f>J5</f>
+        <f t="shared" si="1"/>
         <v>-1.5583048643592829</v>
       </c>
       <c r="O5" s="2">
-        <f>I5</f>
+        <f t="shared" si="2"/>
         <v>-3.5696339661988064</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" ref="P5:P12" si="6">N5^2</f>
+        <f t="shared" ref="P5:P12" si="9">N5^2</f>
         <v>2.4283140502858034</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" ref="Q5:Q13" si="7">N5*O5</f>
+        <f t="shared" ref="Q5:Q13" si="10">N5*O5</f>
         <v>5.5625779735097201</v>
       </c>
-      <c r="R5" s="50"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="49"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="31"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -4644,63 +4643,63 @@
         <v>130.80000000000001</v>
       </c>
       <c r="D6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1308</v>
+      </c>
+      <c r="E6" s="47"/>
+      <c r="F6" s="2">
+        <f t="shared" si="4"/>
+        <v>3.3426183844011144</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="5"/>
+        <v>31.700000000000017</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="6"/>
+        <v>3.170000000000002E-2</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="7"/>
+        <v>-3.4759132025306942</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.4989407377822483</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="0"/>
-        <v>0.1308</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="2">
+        <v>0.59649133364235474</v>
+      </c>
+      <c r="L6" s="25"/>
+      <c r="M6" s="21">
+        <v>3</v>
+      </c>
+      <c r="N6" s="2">
         <f t="shared" si="1"/>
-        <v>3.3426183844011144</v>
-      </c>
-      <c r="G6" s="7">
+        <v>-1.4989407377822483</v>
+      </c>
+      <c r="O6" s="2">
         <f t="shared" si="2"/>
-        <v>31.700000000000017</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="3"/>
-        <v>3.170000000000002E-2</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="4"/>
         <v>-3.4759132025306942</v>
       </c>
-      <c r="J6" s="2">
-        <f t="shared" si="5"/>
-        <v>-1.4989407377822483</v>
-      </c>
-      <c r="K6" s="2">
-        <f>(F6*(10^-4))/((9.81^0.5)*(H6^2.5))</f>
-        <v>0.59649133364235474</v>
-      </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="39">
-        <v>3</v>
-      </c>
-      <c r="N6" s="2">
-        <f>J6</f>
-        <v>-1.4989407377822483</v>
-      </c>
-      <c r="O6" s="2">
-        <f>I6</f>
-        <v>-3.4759132025306942</v>
-      </c>
       <c r="P6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.246823335383191</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.2101879002684166</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="49"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="31"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -4713,63 +4712,63 @@
         <v>134.30000000000001</v>
       </c>
       <c r="D7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1343</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="2">
+        <f t="shared" si="4"/>
+        <v>4.2589437819420786</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="5"/>
+        <v>35.200000000000017</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="6"/>
+        <v>3.5200000000000016E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="7"/>
+        <v>-3.370698092575577</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.4534573365218688</v>
+      </c>
+      <c r="K7" s="2">
         <f t="shared" si="0"/>
-        <v>0.1343</v>
-      </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="2">
+        <v>0.58493922455812764</v>
+      </c>
+      <c r="L7" s="25"/>
+      <c r="M7" s="21">
+        <v>4</v>
+      </c>
+      <c r="N7" s="2">
         <f t="shared" si="1"/>
-        <v>4.2589437819420786</v>
-      </c>
-      <c r="G7" s="7">
+        <v>-1.4534573365218688</v>
+      </c>
+      <c r="O7" s="2">
         <f t="shared" si="2"/>
-        <v>35.200000000000017</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="3"/>
-        <v>3.5200000000000016E-2</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="4"/>
         <v>-3.370698092575577</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" si="5"/>
-        <v>-1.4534573365218688</v>
-      </c>
-      <c r="K7" s="2">
-        <f>(F7*(10^-4))/((9.81^0.5)*(H7^2.5))</f>
-        <v>0.58493922455812764</v>
-      </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="39">
-        <v>4</v>
-      </c>
-      <c r="N7" s="2">
-        <f>J7</f>
-        <v>-1.4534573365218688</v>
-      </c>
-      <c r="O7" s="2">
-        <f>I7</f>
-        <v>-3.370698092575577</v>
-      </c>
       <c r="P7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.1125382290892452</v>
       </c>
       <c r="Q7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.8991658718542412</v>
       </c>
-      <c r="R7" s="50"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="49"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="31"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -4782,63 +4781,63 @@
         <v>137.1</v>
       </c>
       <c r="D8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1371</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="2">
+        <f t="shared" si="4"/>
+        <v>4.8987589810581316</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="6"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="7"/>
+        <v>-3.3099139273065608</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.4202164033831899</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1371</v>
-      </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="2">
+        <v>0.55563881631816059</v>
+      </c>
+      <c r="L8" s="25"/>
+      <c r="M8" s="21">
+        <v>5</v>
+      </c>
+      <c r="N8" s="2">
         <f t="shared" si="1"/>
-        <v>4.8987589810581316</v>
-      </c>
-      <c r="G8" s="7">
+        <v>-1.4202164033831899</v>
+      </c>
+      <c r="O8" s="2">
         <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="3"/>
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="4"/>
         <v>-3.3099139273065608</v>
       </c>
-      <c r="J8" s="2">
-        <f t="shared" si="5"/>
-        <v>-1.4202164033831899</v>
-      </c>
-      <c r="K8" s="2">
-        <f>(F8*(10^-4))/((9.81^0.5)*(H8^2.5))</f>
-        <v>0.55563881631816059</v>
-      </c>
-      <c r="L8" s="43"/>
-      <c r="M8" s="39">
-        <v>5</v>
-      </c>
-      <c r="N8" s="2">
-        <f>J8</f>
-        <v>-1.4202164033831899</v>
-      </c>
-      <c r="O8" s="2">
-        <f>I8</f>
-        <v>-3.3099139273065608</v>
-      </c>
       <c r="P8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.0170146324386837</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.700794053347253</v>
       </c>
-      <c r="R8" s="50"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="49"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="31"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -4851,63 +4850,63 @@
         <v>141.25</v>
       </c>
       <c r="D9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.14124999999999999</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="2">
+        <f t="shared" si="4"/>
+        <v>6.4615384615384617</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="5"/>
+        <v>42.150000000000006</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="6"/>
+        <v>4.2150000000000007E-2</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="7"/>
+        <v>-3.1896640662449549</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.3752024210392388</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="0"/>
-        <v>0.14124999999999999</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="2">
+        <v>0.56559750194964142</v>
+      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="21">
+        <v>6</v>
+      </c>
+      <c r="N9" s="2">
         <f t="shared" si="1"/>
-        <v>6.4615384615384617</v>
-      </c>
-      <c r="G9" s="7">
+        <v>-1.3752024210392388</v>
+      </c>
+      <c r="O9" s="2">
         <f t="shared" si="2"/>
-        <v>42.150000000000006</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="3"/>
-        <v>4.2150000000000007E-2</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="4"/>
         <v>-3.1896640662449549</v>
       </c>
-      <c r="J9" s="2">
-        <f t="shared" si="5"/>
-        <v>-1.3752024210392388</v>
-      </c>
-      <c r="K9" s="2">
-        <f>(F9*(10^-4))/((9.81^0.5)*(H9^2.5))</f>
-        <v>0.56559750194964142</v>
-      </c>
-      <c r="L9" s="43"/>
-      <c r="M9" s="39">
-        <v>6</v>
-      </c>
-      <c r="N9" s="2">
-        <f>J9</f>
-        <v>-1.3752024210392388</v>
-      </c>
-      <c r="O9" s="2">
-        <f>I9</f>
-        <v>-3.1896640662449549</v>
-      </c>
       <c r="P9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.8911816988321839</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.3864337462019254</v>
       </c>
-      <c r="R9" s="50"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="49"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="31"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -4920,63 +4919,63 @@
         <v>139</v>
       </c>
       <c r="D10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="2">
+        <f t="shared" si="4"/>
+        <v>5.625</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="5"/>
+        <v>39.900000000000006</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="6"/>
+        <v>3.9900000000000005E-2</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="7"/>
+        <v>-3.2498774732165998</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.3990271043132516</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="0"/>
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="2">
+        <v>0.56474940739429236</v>
+      </c>
+      <c r="L10" s="25"/>
+      <c r="M10" s="21">
+        <v>7</v>
+      </c>
+      <c r="N10" s="2">
         <f t="shared" si="1"/>
-        <v>5.625</v>
-      </c>
-      <c r="G10" s="7">
+        <v>-1.3990271043132516</v>
+      </c>
+      <c r="O10" s="2">
         <f t="shared" si="2"/>
-        <v>39.900000000000006</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="3"/>
-        <v>3.9900000000000005E-2</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="4"/>
         <v>-3.2498774732165998</v>
       </c>
-      <c r="J10" s="2">
-        <f t="shared" si="5"/>
-        <v>-1.3990271043132516</v>
-      </c>
-      <c r="K10" s="2">
-        <f>(F10*(10^-4))/((9.81^0.5)*(H10^2.5))</f>
-        <v>0.56474940739429236</v>
-      </c>
-      <c r="L10" s="43"/>
-      <c r="M10" s="39">
-        <v>7</v>
-      </c>
-      <c r="N10" s="2">
-        <f>J10</f>
-        <v>-1.3990271043132516</v>
-      </c>
-      <c r="O10" s="2">
-        <f>I10</f>
-        <v>-3.2498774732165998</v>
-      </c>
       <c r="P10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.9572768386031218</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.5466666707270864</v>
       </c>
-      <c r="R10" s="50"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="49"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="31"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -4989,63 +4988,63 @@
         <v>128.5</v>
       </c>
       <c r="D11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1285</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="2">
+        <f t="shared" si="4"/>
+        <v>3.0848329048843186</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="5"/>
+        <v>29.400000000000006</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="6"/>
+        <v>2.9400000000000006E-2</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="7"/>
+        <v>-3.5107683552780831</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.5316526695878425</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="0"/>
-        <v>0.1285</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="2">
+        <v>0.66455176378540881</v>
+      </c>
+      <c r="L11" s="25"/>
+      <c r="M11" s="21">
+        <v>8</v>
+      </c>
+      <c r="N11" s="2">
         <f t="shared" si="1"/>
-        <v>3.0848329048843186</v>
-      </c>
-      <c r="G11" s="7">
+        <v>-1.5316526695878425</v>
+      </c>
+      <c r="O11" s="2">
         <f t="shared" si="2"/>
-        <v>29.400000000000006</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="3"/>
-        <v>2.9400000000000006E-2</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="4"/>
         <v>-3.5107683552780831</v>
       </c>
-      <c r="J11" s="2">
-        <f t="shared" si="5"/>
-        <v>-1.5316526695878425</v>
-      </c>
-      <c r="K11" s="2">
-        <f>(F11*(10^-4))/((9.81^0.5)*(H11^2.5))</f>
-        <v>0.66455176378540881</v>
-      </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="39">
-        <v>8</v>
-      </c>
-      <c r="N11" s="2">
-        <f>J11</f>
-        <v>-1.5316526695878425</v>
-      </c>
-      <c r="O11" s="2">
-        <f>I11</f>
-        <v>-3.5107683552780831</v>
-      </c>
       <c r="P11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.3459599002555649</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.3772777236661948</v>
       </c>
-      <c r="R11" s="50"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="49"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="31"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -5058,63 +5057,63 @@
         <v>126</v>
       </c>
       <c r="D12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.126</v>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="2">
+        <f t="shared" si="4"/>
+        <v>2.4725274725274726</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="5"/>
+        <v>26.900000000000006</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="6"/>
+        <v>2.6900000000000007E-2</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="7"/>
+        <v>-3.6068588742097312</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.5702477199975919</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="0"/>
-        <v>0.126</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="2">
+        <v>0.6651596897834382</v>
+      </c>
+      <c r="L12" s="25"/>
+      <c r="M12" s="21">
+        <v>9</v>
+      </c>
+      <c r="N12" s="2">
         <f t="shared" si="1"/>
-        <v>2.4725274725274726</v>
-      </c>
-      <c r="G12" s="7">
+        <v>-1.5702477199975919</v>
+      </c>
+      <c r="O12" s="2">
         <f t="shared" si="2"/>
-        <v>26.900000000000006</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="3"/>
-        <v>2.6900000000000007E-2</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="4"/>
         <v>-3.6068588742097312</v>
       </c>
-      <c r="J12" s="2">
-        <f t="shared" si="5"/>
-        <v>-1.5702477199975919</v>
-      </c>
-      <c r="K12" s="2">
-        <f>(F12*(10^-4))/((9.81^0.5)*(H12^2.5))</f>
-        <v>0.6651596897834382</v>
-      </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="39">
-        <v>9</v>
-      </c>
-      <c r="N12" s="2">
-        <f>J12</f>
-        <v>-1.5702477199975919</v>
-      </c>
-      <c r="O12" s="2">
-        <f>I12</f>
-        <v>-3.6068588742097312</v>
-      </c>
       <c r="P12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.465677902157636</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.6636619235809116</v>
       </c>
-      <c r="R12" s="50"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="49"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="31"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -5127,44 +5126,44 @@
         <v>120</v>
       </c>
       <c r="D13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.12</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="F13" s="2">
+        <f t="shared" si="4"/>
+        <v>1.5781167806417673</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="5"/>
+        <v>20.900000000000006</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="6"/>
+        <v>2.0900000000000005E-2</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="7"/>
+        <v>-3.8018608621457806</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.6798537138889458</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="2">
+        <v>0.79788246162732246</v>
+      </c>
+      <c r="L13" s="26"/>
+      <c r="M13" s="21">
+        <v>10</v>
+      </c>
+      <c r="N13" s="2">
         <f t="shared" si="1"/>
-        <v>1.5781167806417673</v>
-      </c>
-      <c r="G13" s="7">
+        <v>-1.6798537138889458</v>
+      </c>
+      <c r="O13" s="2">
         <f t="shared" si="2"/>
-        <v>20.900000000000006</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="3"/>
-        <v>2.0900000000000005E-2</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="4"/>
-        <v>-3.8018608621457806</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="5"/>
-        <v>-1.6798537138889458</v>
-      </c>
-      <c r="K13" s="2">
-        <f>(F13*(10^-4))/((9.81^0.5)*(H13^2.5))</f>
-        <v>0.79788246162732246</v>
-      </c>
-      <c r="L13" s="44"/>
-      <c r="M13" s="39">
-        <v>10</v>
-      </c>
-      <c r="N13" s="2">
-        <f>J13</f>
-        <v>-1.6798537138889458</v>
-      </c>
-      <c r="O13" s="2">
-        <f>I13</f>
         <v>-3.8018608621457806</v>
       </c>
       <c r="P13" s="2">
@@ -5172,29 +5171,29 @@
         <v>2.8219085000664843</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.3865700889646186</v>
       </c>
-      <c r="R13" s="50"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="49"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="31"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="1" t="s">
         <v>30</v>
       </c>
@@ -5202,135 +5201,135 @@
         <f>AVERAGE(K4:K13)</f>
         <v>0.63582601713142695</v>
       </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="40" t="s">
+      <c r="L14" s="27"/>
+      <c r="M14" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="41">
+      <c r="N14" s="23">
         <f>SUM(N4:N13)</f>
         <v>-15.103087604893028</v>
       </c>
-      <c r="O14" s="41">
-        <f t="shared" ref="O14:Q14" si="8">SUM(O4:O13)</f>
+      <c r="O14" s="23">
+        <f t="shared" ref="O14:Q14" si="11">SUM(O4:O13)</f>
         <v>-34.793042755685391</v>
       </c>
-      <c r="P14" s="41">
-        <f t="shared" si="8"/>
+      <c r="P14" s="23">
+        <f t="shared" si="11"/>
         <v>22.898747858352884</v>
       </c>
-      <c r="Q14" s="41">
-        <f t="shared" si="8"/>
+      <c r="Q14" s="23">
+        <f t="shared" si="11"/>
         <v>52.725912508637954</v>
       </c>
-      <c r="R14" s="50"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="49"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="31"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="49"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="31"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="52" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="49"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="31"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="17">
         <v>69.599999999999994</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="33" t="s">
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="33" t="s">
+      <c r="H17" s="49"/>
+      <c r="I17" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J17" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="K17" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="L17" s="42"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="49"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="31"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
@@ -5345,17 +5344,17 @@
       <c r="D18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="33"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="11" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
       <c r="L18" s="12"/>
       <c r="M18" s="13" t="s">
         <v>42</v>
@@ -5396,7 +5395,7 @@
       <c r="Y18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="Z18" s="60" t="s">
+      <c r="Z18" s="41" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5414,7 +5413,7 @@
         <f>C19/1000</f>
         <v>0.1187</v>
       </c>
-      <c r="E19" s="31"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="2">
         <f>(A19/B19)*10</f>
         <v>6.3578564940962758</v>
@@ -5436,19 +5435,19 @@
         <v>-1.3089185078770313</v>
       </c>
       <c r="K19" s="8">
-        <f>(F19*(10^-4))/((9.81^(1/2))*(H19^(3/2)))</f>
+        <f t="shared" ref="K19:K28" si="12">(F19*(10^-4))/((9.81^(1/2))*(H19^(3/2)))</f>
         <v>1.8657522720766123E-2</v>
       </c>
-      <c r="L19" s="46"/>
-      <c r="M19" s="39">
+      <c r="L19" s="28"/>
+      <c r="M19" s="21">
         <v>1</v>
       </c>
       <c r="N19" s="2">
-        <f>J19</f>
+        <f t="shared" ref="N19:N28" si="13">J19</f>
         <v>-1.3089185078770313</v>
       </c>
       <c r="O19" s="2">
-        <f>I19</f>
+        <f t="shared" ref="O19:O28" si="14">I19</f>
         <v>-3.196689278957495</v>
       </c>
       <c r="P19" s="2">
@@ -5491,7 +5490,7 @@
         <f>10^X19</f>
         <v>7.1445431391162648E-2</v>
       </c>
-      <c r="Z19" s="59"/>
+      <c r="Z19" s="40"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -5504,63 +5503,63 @@
         <v>120.75</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" ref="D20:D28" si="9">C20/1000</f>
+        <f t="shared" ref="D20:D28" si="15">C20/1000</f>
         <v>0.12075</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="2">
-        <f t="shared" ref="F20:F28" si="10">(A20/B20)*10</f>
+        <f t="shared" ref="F20:F28" si="16">(A20/B20)*10</f>
         <v>6.878480183426138</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" ref="G20:G28" si="11">C20-B$17</f>
+        <f t="shared" ref="G20:G28" si="17">C20-B$17</f>
         <v>51.150000000000006</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" ref="H20:H28" si="12">G20/1000</f>
+        <f t="shared" ref="H20:H28" si="18">G20/1000</f>
         <v>5.1150000000000008E-2</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" ref="I20:I28" si="13">LOG10(F20*10^-4)</f>
+        <f t="shared" ref="I20:I28" si="19">LOG10(F20*10^-4)</f>
         <v>-3.1625075095647426</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" ref="J20:J28" si="14">LOG10(H20)</f>
+        <f t="shared" ref="J20:J28" si="20">LOG10(H20)</f>
         <v>-1.2911543619518209</v>
       </c>
       <c r="K20" s="8">
-        <f>(F20*(10^-4))/((9.81^(1/2))*(H20^(3/2)))</f>
+        <f t="shared" si="12"/>
         <v>1.898407887737948E-2</v>
       </c>
-      <c r="L20" s="46"/>
-      <c r="M20" s="39">
+      <c r="L20" s="28"/>
+      <c r="M20" s="21">
         <v>2</v>
       </c>
       <c r="N20" s="2">
-        <f>J20</f>
+        <f t="shared" si="13"/>
         <v>-1.2911543619518209</v>
       </c>
       <c r="O20" s="2">
-        <f>I20</f>
+        <f t="shared" si="14"/>
         <v>-3.1625075095647426</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" ref="P20:P27" si="15">N20^2</f>
+        <f t="shared" ref="P20:P27" si="21">N20^2</f>
         <v>1.6670795863872137</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" ref="Q20:Q28" si="16">N20*O20</f>
+        <f t="shared" ref="Q20:Q28" si="22">N20*O20</f>
         <v>4.0832853656799069</v>
       </c>
-      <c r="R20" s="50"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="49"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="31"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -5573,63 +5572,63 @@
         <v>120.85</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.12085</v>
       </c>
-      <c r="E21" s="31"/>
+      <c r="E21" s="47"/>
       <c r="F21" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6.8945705257110026</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>51.25</v>
       </c>
       <c r="H21" s="2">
+        <f t="shared" si="18"/>
+        <v>5.1249999999999997E-2</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="19"/>
+        <v>-3.1614927815726821</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="20"/>
+        <v>-1.2903061302722081</v>
+      </c>
+      <c r="K21" s="8">
         <f t="shared" si="12"/>
-        <v>5.1249999999999997E-2</v>
-      </c>
-      <c r="I21" s="2">
+        <v>1.8972821034215496E-2</v>
+      </c>
+      <c r="L21" s="28"/>
+      <c r="M21" s="21">
+        <v>3</v>
+      </c>
+      <c r="N21" s="2">
         <f t="shared" si="13"/>
+        <v>-1.2903061302722081</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="14"/>
         <v>-3.1614927815726821</v>
       </c>
-      <c r="J21" s="2">
-        <f t="shared" si="14"/>
-        <v>-1.2903061302722081</v>
-      </c>
-      <c r="K21" s="8">
-        <f>(F21*(10^-4))/((9.81^(1/2))*(H21^(3/2)))</f>
-        <v>1.8972821034215496E-2</v>
-      </c>
-      <c r="L21" s="46"/>
-      <c r="M21" s="39">
-        <v>3</v>
-      </c>
-      <c r="N21" s="2">
-        <f>J21</f>
-        <v>-1.2903061302722081</v>
-      </c>
-      <c r="O21" s="2">
-        <f>I21</f>
-        <v>-3.1614927815726821</v>
-      </c>
       <c r="P21" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1.6648899098180405</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>4.079293516874567</v>
       </c>
-      <c r="R21" s="50"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="49"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -5642,63 +5641,63 @@
         <v>90.05</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>9.0049999999999991E-2</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1.6551724137931034</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>20.450000000000003</v>
       </c>
       <c r="H22" s="2">
+        <f t="shared" si="18"/>
+        <v>2.0450000000000003E-2</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="19"/>
+        <v>-3.7811567605233689</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="20"/>
+        <v>-1.6893066876566394</v>
+      </c>
+      <c r="K22" s="8">
         <f t="shared" si="12"/>
-        <v>2.0450000000000003E-2</v>
-      </c>
-      <c r="I22" s="2">
+        <v>1.8070441659229126E-2</v>
+      </c>
+      <c r="L22" s="28"/>
+      <c r="M22" s="21">
+        <v>4</v>
+      </c>
+      <c r="N22" s="2">
         <f t="shared" si="13"/>
+        <v>-1.6893066876566394</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="14"/>
         <v>-3.7811567605233689</v>
       </c>
-      <c r="J22" s="2">
-        <f t="shared" si="14"/>
-        <v>-1.6893066876566394</v>
-      </c>
-      <c r="K22" s="8">
-        <f>(F22*(10^-4))/((9.81^(1/2))*(H22^(3/2)))</f>
-        <v>1.8070441659229126E-2</v>
-      </c>
-      <c r="L22" s="46"/>
-      <c r="M22" s="39">
-        <v>4</v>
-      </c>
-      <c r="N22" s="2">
-        <f>J22</f>
-        <v>-1.6893066876566394</v>
-      </c>
-      <c r="O22" s="2">
-        <f>I22</f>
-        <v>-3.7811567605233689</v>
-      </c>
       <c r="P22" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>2.8537570849614466</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>6.3875334026302415</v>
       </c>
-      <c r="R22" s="50"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="49"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -5711,63 +5710,63 @@
         <v>98.1</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>9.8099999999999993E-2</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2.7522935779816518</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>28.5</v>
       </c>
       <c r="H23" s="2">
+        <f t="shared" si="18"/>
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="19"/>
+        <v>-3.5603052432209612</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="20"/>
+        <v>-1.5451551399914898</v>
+      </c>
+      <c r="K23" s="8">
         <f t="shared" si="12"/>
-        <v>2.8500000000000001E-2</v>
-      </c>
-      <c r="I23" s="2">
+        <v>1.8263876553642665E-2</v>
+      </c>
+      <c r="L23" s="28"/>
+      <c r="M23" s="21">
+        <v>5</v>
+      </c>
+      <c r="N23" s="2">
         <f t="shared" si="13"/>
+        <v>-1.5451551399914898</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="14"/>
         <v>-3.5603052432209612</v>
       </c>
-      <c r="J23" s="2">
-        <f t="shared" si="14"/>
-        <v>-1.5451551399914898</v>
-      </c>
-      <c r="K23" s="8">
-        <f>(F23*(10^-4))/((9.81^(1/2))*(H23^(3/2)))</f>
-        <v>1.8263876553642665E-2</v>
-      </c>
-      <c r="L23" s="46"/>
-      <c r="M23" s="39">
-        <v>5</v>
-      </c>
-      <c r="N23" s="2">
-        <f>J23</f>
-        <v>-1.5451551399914898</v>
-      </c>
-      <c r="O23" s="2">
-        <f>I23</f>
-        <v>-3.5603052432209612</v>
-      </c>
       <c r="P23" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>2.3875044066421203</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>5.5012239465015194</v>
       </c>
-      <c r="R23" s="50"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="49"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -5780,63 +5779,63 @@
         <v>103.1</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.1031</v>
       </c>
-      <c r="E24" s="31"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3.5618878005342838</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>33.5</v>
       </c>
       <c r="H24" s="2">
+        <f t="shared" si="18"/>
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="19"/>
+        <v>-3.4483197649334953</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="20"/>
+        <v>-1.4749551929631548</v>
+      </c>
+      <c r="K24" s="8">
         <f t="shared" si="12"/>
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="I24" s="2">
+        <v>1.854720707656422E-2</v>
+      </c>
+      <c r="L24" s="28"/>
+      <c r="M24" s="21">
+        <v>6</v>
+      </c>
+      <c r="N24" s="2">
         <f t="shared" si="13"/>
+        <v>-1.4749551929631548</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="14"/>
         <v>-3.4483197649334953</v>
       </c>
-      <c r="J24" s="2">
-        <f t="shared" si="14"/>
-        <v>-1.4749551929631548</v>
-      </c>
-      <c r="K24" s="8">
-        <f>(F24*(10^-4))/((9.81^(1/2))*(H24^(3/2)))</f>
-        <v>1.854720707656422E-2</v>
-      </c>
-      <c r="L24" s="46"/>
-      <c r="M24" s="39">
-        <v>6</v>
-      </c>
-      <c r="N24" s="2">
-        <f>J24</f>
-        <v>-1.4749551929631548</v>
-      </c>
-      <c r="O24" s="2">
-        <f>I24</f>
-        <v>-3.4483197649334953</v>
-      </c>
       <c r="P24" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>2.175492821248977</v>
       </c>
       <c r="Q24" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>5.0861171442861446</v>
       </c>
-      <c r="R24" s="50"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="49"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -5849,63 +5848,63 @@
         <v>107.35</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.10735</v>
       </c>
-      <c r="E25" s="31"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>4.3041606886657107</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>37.75</v>
       </c>
       <c r="H25" s="2">
+        <f t="shared" si="18"/>
+        <v>3.7749999999999999E-2</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="19"/>
+        <v>-3.366111523378347</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="20"/>
+        <v>-1.423083044034793</v>
+      </c>
+      <c r="K25" s="8">
         <f t="shared" si="12"/>
-        <v>3.7749999999999999E-2</v>
-      </c>
-      <c r="I25" s="2">
+        <v>1.8736071668753306E-2</v>
+      </c>
+      <c r="L25" s="28"/>
+      <c r="M25" s="21">
+        <v>7</v>
+      </c>
+      <c r="N25" s="2">
         <f t="shared" si="13"/>
+        <v>-1.423083044034793</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="14"/>
         <v>-3.366111523378347</v>
       </c>
-      <c r="J25" s="2">
-        <f t="shared" si="14"/>
-        <v>-1.423083044034793</v>
-      </c>
-      <c r="K25" s="8">
-        <f>(F25*(10^-4))/((9.81^(1/2))*(H25^(3/2)))</f>
-        <v>1.8736071668753306E-2</v>
-      </c>
-      <c r="L25" s="46"/>
-      <c r="M25" s="39">
-        <v>7</v>
-      </c>
-      <c r="N25" s="2">
-        <f>J25</f>
-        <v>-1.423083044034793</v>
-      </c>
-      <c r="O25" s="2">
-        <f>I25</f>
-        <v>-3.366111523378347</v>
-      </c>
       <c r="P25" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>2.0251653502193325</v>
       </c>
       <c r="Q25" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>4.7902562332498526</v>
       </c>
-      <c r="R25" s="50"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="49"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -5918,63 +5917,63 @@
         <v>112.85</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.11284999999999999</v>
       </c>
-      <c r="E26" s="31"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>5.4037826478534967</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43.25</v>
       </c>
       <c r="H26" s="2">
+        <f t="shared" si="18"/>
+        <v>4.3249999999999997E-2</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="19"/>
+        <v>-3.2673021275878709</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="20"/>
+        <v>-1.364013888199167</v>
+      </c>
+      <c r="K26" s="8">
         <f t="shared" si="12"/>
-        <v>4.3249999999999997E-2</v>
-      </c>
-      <c r="I26" s="2">
+        <v>1.9181572207855317E-2</v>
+      </c>
+      <c r="L26" s="28"/>
+      <c r="M26" s="21">
+        <v>8</v>
+      </c>
+      <c r="N26" s="2">
         <f t="shared" si="13"/>
+        <v>-1.364013888199167</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="14"/>
         <v>-3.2673021275878709</v>
       </c>
-      <c r="J26" s="2">
-        <f t="shared" si="14"/>
-        <v>-1.364013888199167</v>
-      </c>
-      <c r="K26" s="8">
-        <f>(F26*(10^-4))/((9.81^(1/2))*(H26^(3/2)))</f>
-        <v>1.9181572207855317E-2</v>
-      </c>
-      <c r="L26" s="46"/>
-      <c r="M26" s="39">
-        <v>8</v>
-      </c>
-      <c r="N26" s="2">
-        <f>J26</f>
-        <v>-1.364013888199167</v>
-      </c>
-      <c r="O26" s="2">
-        <f>I26</f>
-        <v>-3.2673021275878709</v>
-      </c>
       <c r="P26" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1.8605338872002097</v>
       </c>
       <c r="Q26" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>4.4566454789725425</v>
       </c>
-      <c r="R26" s="50"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="49"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -5987,63 +5986,63 @@
         <v>116.85</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.11685</v>
       </c>
-      <c r="E27" s="31"/>
+      <c r="E27" s="47"/>
       <c r="F27" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6.25</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>47.25</v>
       </c>
       <c r="H27" s="2">
+        <f t="shared" si="18"/>
+        <v>4.725E-2</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="19"/>
+        <v>-3.2041199826559246</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="20"/>
+        <v>-1.3255981871547182</v>
+      </c>
+      <c r="K27" s="8">
         <f t="shared" si="12"/>
-        <v>4.725E-2</v>
-      </c>
-      <c r="I27" s="2">
+        <v>1.9428657591532728E-2</v>
+      </c>
+      <c r="L27" s="28"/>
+      <c r="M27" s="21">
+        <v>9</v>
+      </c>
+      <c r="N27" s="2">
         <f t="shared" si="13"/>
+        <v>-1.3255981871547182</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="14"/>
         <v>-3.2041199826559246</v>
       </c>
-      <c r="J27" s="2">
-        <f t="shared" si="14"/>
-        <v>-1.3255981871547182</v>
-      </c>
-      <c r="K27" s="8">
-        <f>(F27*(10^-4))/((9.81^(1/2))*(H27^(3/2)))</f>
-        <v>1.9428657591532728E-2</v>
-      </c>
-      <c r="L27" s="46"/>
-      <c r="M27" s="39">
-        <v>9</v>
-      </c>
-      <c r="N27" s="2">
-        <f>J27</f>
-        <v>-1.3255981871547182</v>
-      </c>
-      <c r="O27" s="2">
-        <f>I27</f>
-        <v>-3.2041199826559246</v>
-      </c>
       <c r="P27" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1.7572105537878753</v>
       </c>
       <c r="Q27" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>4.2473756404349006</v>
       </c>
-      <c r="R27" s="50"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="49"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -6056,44 +6055,44 @@
         <v>119.8</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.1198</v>
       </c>
-      <c r="E28" s="32"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6.6857688634192938</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>50.2</v>
       </c>
       <c r="H28" s="2">
+        <f t="shared" si="18"/>
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="19"/>
+        <v>-3.1748486416645854</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="20"/>
+        <v>-1.2992962828549806</v>
+      </c>
+      <c r="K28" s="8">
         <f t="shared" si="12"/>
-        <v>5.0200000000000002E-2</v>
-      </c>
-      <c r="I28" s="2">
+        <v>1.8978473549885907E-2</v>
+      </c>
+      <c r="L28" s="29"/>
+      <c r="M28" s="21">
+        <v>10</v>
+      </c>
+      <c r="N28" s="2">
         <f t="shared" si="13"/>
-        <v>-3.1748486416645854</v>
-      </c>
-      <c r="J28" s="2">
+        <v>-1.2992962828549806</v>
+      </c>
+      <c r="O28" s="2">
         <f t="shared" si="14"/>
-        <v>-1.2992962828549806</v>
-      </c>
-      <c r="K28" s="8">
-        <f>(F28*(10^-4))/((9.81^(1/2))*(H28^(3/2)))</f>
-        <v>1.8978473549885907E-2</v>
-      </c>
-      <c r="L28" s="47"/>
-      <c r="M28" s="39">
-        <v>10</v>
-      </c>
-      <c r="N28" s="2">
-        <f>J28</f>
-        <v>-1.2992962828549806</v>
-      </c>
-      <c r="O28" s="2">
-        <f>I28</f>
         <v>-3.1748486416645854</v>
       </c>
       <c r="P28" s="2">
@@ -6101,29 +6100,29 @@
         <v>1.6881708306407697</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>4.1250690387419802</v>
       </c>
-      <c r="R28" s="50"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="49"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="36"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="45"/>
       <c r="J29" s="1" t="s">
         <v>30</v>
       </c>
@@ -6131,35 +6130,35 @@
         <f>AVERAGE(K19:K28)</f>
         <v>1.8782072293982439E-2</v>
       </c>
-      <c r="L29" s="48"/>
-      <c r="M29" s="40" t="s">
+      <c r="L29" s="30"/>
+      <c r="M29" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="N29" s="41">
+      <c r="N29" s="23">
         <f>SUM(N19:N28)</f>
         <v>-14.011787422956004</v>
       </c>
-      <c r="O29" s="41">
-        <f t="shared" ref="O29:Q29" si="17">SUM(O19:O28)</f>
+      <c r="O29" s="23">
+        <f t="shared" ref="O29:Q29" si="23">SUM(O19:O28)</f>
         <v>-33.322853614059468</v>
       </c>
-      <c r="P29" s="41">
-        <f t="shared" si="17"/>
+      <c r="P29" s="23">
+        <f t="shared" si="23"/>
         <v>19.793072091169016</v>
       </c>
-      <c r="Q29" s="41">
-        <f t="shared" si="17"/>
+      <c r="Q29" s="23">
+        <f t="shared" si="23"/>
         <v>46.941005528531207</v>
       </c>
-      <c r="R29" s="50"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="49"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="O32" s="19" t="s">
@@ -6167,7 +6166,7 @@
       </c>
     </row>
     <row r="33" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O33" s="22" t="s">
+      <c r="O33" s="58" t="s">
         <v>31</v>
       </c>
       <c r="P33" s="3" t="s">
@@ -6181,7 +6180,7 @@
       </c>
     </row>
     <row r="34" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O34" s="23"/>
+      <c r="O34" s="59"/>
       <c r="P34" s="6" t="s">
         <v>38</v>
       </c>
@@ -6195,7 +6194,7 @@
       </c>
     </row>
     <row r="35" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O35" s="22" t="s">
+      <c r="O35" s="58" t="s">
         <v>32</v>
       </c>
       <c r="P35" s="3" t="s">
@@ -6209,11 +6208,11 @@
       </c>
     </row>
     <row r="36" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O36" s="23"/>
+      <c r="O36" s="59"/>
       <c r="P36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Q36" s="38">
+      <c r="Q36" s="20">
         <f>K29</f>
         <v>1.8782072293982439E-2</v>
       </c>
@@ -6224,6 +6223,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="F1:W1"/>
+    <mergeCell ref="M2:W2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="X1:Y2"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="A29:I29"/>
@@ -6240,13 +6246,6 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C16:E17"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="F1:W1"/>
-    <mergeCell ref="M2:W2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="X1:Y2"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/lab11/Lab-flu-11.xlsx
+++ b/lab11/Lab-flu-11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543AA064-66C3-4F3B-8D29-EA961066DF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6C7FEF-EA0E-45DB-AE0E-AE605125686F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD930733-D6D9-0543-9D83-32F9058366BC}"/>
   </bookViews>
@@ -525,6 +525,24 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -559,24 +577,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -962,7 +962,8 @@
         <c:axId val="1496952896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="-1.25"/>
+          <c:max val="0"/>
+          <c:min val="-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1094,14 +1095,14 @@
         <c:crossAx val="1496953376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5.000000000000001E-2"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1496953376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="-3"/>
-          <c:min val="-4"/>
+          <c:max val="0"/>
+          <c:min val="-5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1228,6 +1229,7 @@
         <c:crossAx val="1496952896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4304,8 +4306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDF6C7A-DED1-924B-901B-0FA50C1931C6}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4328,75 +4330,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
       <c r="Z1" s="31"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="15">
         <v>99.1</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="42" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="42" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="48" t="s">
         <v>12</v>
       </c>
       <c r="L2" s="24"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
       <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -4412,17 +4414,17 @@
       <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="42"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
       <c r="L3" s="12"/>
       <c r="M3" s="13" t="s">
         <v>42</v>
@@ -4481,7 +4483,7 @@
         <f>C4/1000</f>
         <v>0.12329999999999999</v>
       </c>
-      <c r="E4" s="47"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="2">
         <f>(A4/B4)*10</f>
         <v>1.9595035924232527</v>
@@ -4577,7 +4579,7 @@
         <f t="shared" ref="D5:D13" si="3">C5/1000</f>
         <v>0.12675</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="2">
         <f t="shared" ref="F5:F13" si="4">(A5/B5)*10</f>
         <v>2.6938042502244839</v>
@@ -4646,7 +4648,7 @@
         <f t="shared" si="3"/>
         <v>0.1308</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="2">
         <f t="shared" si="4"/>
         <v>3.3426183844011144</v>
@@ -4715,7 +4717,7 @@
         <f t="shared" si="3"/>
         <v>0.1343</v>
       </c>
-      <c r="E7" s="47"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="2">
         <f t="shared" si="4"/>
         <v>4.2589437819420786</v>
@@ -4784,7 +4786,7 @@
         <f t="shared" si="3"/>
         <v>0.1371</v>
       </c>
-      <c r="E8" s="47"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="2">
         <f t="shared" si="4"/>
         <v>4.8987589810581316</v>
@@ -4853,7 +4855,7 @@
         <f t="shared" si="3"/>
         <v>0.14124999999999999</v>
       </c>
-      <c r="E9" s="47"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="2">
         <f t="shared" si="4"/>
         <v>6.4615384615384617</v>
@@ -4922,7 +4924,7 @@
         <f t="shared" si="3"/>
         <v>0.13900000000000001</v>
       </c>
-      <c r="E10" s="47"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="2">
         <f t="shared" si="4"/>
         <v>5.625</v>
@@ -4991,7 +4993,7 @@
         <f t="shared" si="3"/>
         <v>0.1285</v>
       </c>
-      <c r="E11" s="47"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="2">
         <f t="shared" si="4"/>
         <v>3.0848329048843186</v>
@@ -5060,7 +5062,7 @@
         <f t="shared" si="3"/>
         <v>0.126</v>
       </c>
-      <c r="E12" s="47"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="2">
         <f t="shared" si="4"/>
         <v>2.4725274725274726</v>
@@ -5129,7 +5131,7 @@
         <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
-      <c r="E13" s="48"/>
+      <c r="E13" s="54"/>
       <c r="F13" s="2">
         <f t="shared" si="4"/>
         <v>1.5781167806417673</v>
@@ -5185,15 +5187,15 @@
       <c r="Z13" s="31"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
       <c r="J14" s="1" t="s">
         <v>30</v>
       </c>
@@ -5260,15 +5262,15 @@
       <c r="Z15" s="31"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="58" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
@@ -5292,27 +5294,27 @@
       <c r="Z16" s="31"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="17">
         <v>69.599999999999994</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="42" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="42" t="s">
+      <c r="H17" s="55"/>
+      <c r="I17" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="42" t="s">
+      <c r="J17" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="K17" s="48" t="s">
         <v>27</v>
       </c>
       <c r="L17" s="24"/>
@@ -5344,17 +5346,17 @@
       <c r="D18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="42"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="48"/>
       <c r="G18" s="11" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
       <c r="L18" s="12"/>
       <c r="M18" s="13" t="s">
         <v>42</v>
@@ -5413,7 +5415,7 @@
         <f>C19/1000</f>
         <v>0.1187</v>
       </c>
-      <c r="E19" s="47"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="2">
         <f>(A19/B19)*10</f>
         <v>6.3578564940962758</v>
@@ -5506,7 +5508,7 @@
         <f t="shared" ref="D20:D28" si="15">C20/1000</f>
         <v>0.12075</v>
       </c>
-      <c r="E20" s="47"/>
+      <c r="E20" s="53"/>
       <c r="F20" s="2">
         <f t="shared" ref="F20:F28" si="16">(A20/B20)*10</f>
         <v>6.878480183426138</v>
@@ -5575,7 +5577,7 @@
         <f t="shared" si="15"/>
         <v>0.12085</v>
       </c>
-      <c r="E21" s="47"/>
+      <c r="E21" s="53"/>
       <c r="F21" s="2">
         <f t="shared" si="16"/>
         <v>6.8945705257110026</v>
@@ -5644,7 +5646,7 @@
         <f t="shared" si="15"/>
         <v>9.0049999999999991E-2</v>
       </c>
-      <c r="E22" s="47"/>
+      <c r="E22" s="53"/>
       <c r="F22" s="2">
         <f t="shared" si="16"/>
         <v>1.6551724137931034</v>
@@ -5713,7 +5715,7 @@
         <f t="shared" si="15"/>
         <v>9.8099999999999993E-2</v>
       </c>
-      <c r="E23" s="47"/>
+      <c r="E23" s="53"/>
       <c r="F23" s="2">
         <f t="shared" si="16"/>
         <v>2.7522935779816518</v>
@@ -5782,7 +5784,7 @@
         <f t="shared" si="15"/>
         <v>0.1031</v>
       </c>
-      <c r="E24" s="47"/>
+      <c r="E24" s="53"/>
       <c r="F24" s="2">
         <f t="shared" si="16"/>
         <v>3.5618878005342838</v>
@@ -5851,7 +5853,7 @@
         <f t="shared" si="15"/>
         <v>0.10735</v>
       </c>
-      <c r="E25" s="47"/>
+      <c r="E25" s="53"/>
       <c r="F25" s="2">
         <f t="shared" si="16"/>
         <v>4.3041606886657107</v>
@@ -5920,7 +5922,7 @@
         <f t="shared" si="15"/>
         <v>0.11284999999999999</v>
       </c>
-      <c r="E26" s="47"/>
+      <c r="E26" s="53"/>
       <c r="F26" s="2">
         <f t="shared" si="16"/>
         <v>5.4037826478534967</v>
@@ -5989,7 +5991,7 @@
         <f t="shared" si="15"/>
         <v>0.11685</v>
       </c>
-      <c r="E27" s="47"/>
+      <c r="E27" s="53"/>
       <c r="F27" s="2">
         <f t="shared" si="16"/>
         <v>6.25</v>
@@ -6058,7 +6060,7 @@
         <f t="shared" si="15"/>
         <v>0.1198</v>
       </c>
-      <c r="E28" s="48"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="2">
         <f t="shared" si="16"/>
         <v>6.6857688634192938</v>
@@ -6114,15 +6116,15 @@
       <c r="Z28" s="31"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="45"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51"/>
       <c r="J29" s="1" t="s">
         <v>30</v>
       </c>
@@ -6166,7 +6168,7 @@
       </c>
     </row>
     <row r="33" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O33" s="58" t="s">
+      <c r="O33" s="42" t="s">
         <v>31</v>
       </c>
       <c r="P33" s="3" t="s">
@@ -6180,7 +6182,7 @@
       </c>
     </row>
     <row r="34" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O34" s="59"/>
+      <c r="O34" s="43"/>
       <c r="P34" s="6" t="s">
         <v>38</v>
       </c>
@@ -6194,7 +6196,7 @@
       </c>
     </row>
     <row r="35" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O35" s="58" t="s">
+      <c r="O35" s="42" t="s">
         <v>32</v>
       </c>
       <c r="P35" s="3" t="s">
@@ -6208,7 +6210,7 @@
       </c>
     </row>
     <row r="36" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O36" s="59"/>
+      <c r="O36" s="43"/>
       <c r="P36" s="6" t="s">
         <v>39</v>
       </c>
@@ -6223,12 +6225,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="F1:W1"/>
-    <mergeCell ref="M2:W2"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="X1:Y2"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
@@ -6245,6 +6241,12 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="F1:W1"/>
+    <mergeCell ref="M2:W2"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="C16:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lab11/Lab-flu-11.xlsx
+++ b/lab11/Lab-flu-11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6C7FEF-EA0E-45DB-AE0E-AE605125686F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49DC157-B2BD-4AFA-B249-267D3482F9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD930733-D6D9-0543-9D83-32F9058366BC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>t(s)</t>
   </si>
@@ -169,6 +169,33 @@
   </si>
   <si>
     <t>Q=CH^m</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>sqrt(gH)</t>
+  </si>
+  <si>
+    <t>vต้องเท่ากับsqrt(gH)</t>
+  </si>
+  <si>
+    <t>จากการทดลอง ที่สันฝายไม่ได้มีFr=1</t>
+  </si>
+  <si>
+    <t>สามเหลี่ยม มุม90</t>
   </si>
 </sst>
 </file>
@@ -414,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -525,43 +552,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -579,6 +576,34 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="187" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4306,8 +4331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDF6C7A-DED1-924B-901B-0FA50C1931C6}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4330,75 +4355,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>1</v>
+      <c r="A1" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
       <c r="Z1" s="31"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="15">
         <v>99.1</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="48" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L2" s="24"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
       <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -4414,17 +4439,17 @@
       <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="48"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
       <c r="L3" s="12"/>
       <c r="M3" s="13" t="s">
         <v>42</v>
@@ -4483,7 +4508,7 @@
         <f>C4/1000</f>
         <v>0.12329999999999999</v>
       </c>
-      <c r="E4" s="53"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="2">
         <f>(A4/B4)*10</f>
         <v>1.9595035924232527</v>
@@ -4579,7 +4604,7 @@
         <f t="shared" ref="D5:D13" si="3">C5/1000</f>
         <v>0.12675</v>
       </c>
-      <c r="E5" s="53"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="2">
         <f t="shared" ref="F5:F13" si="4">(A5/B5)*10</f>
         <v>2.6938042502244839</v>
@@ -4648,7 +4673,7 @@
         <f t="shared" si="3"/>
         <v>0.1308</v>
       </c>
-      <c r="E6" s="53"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="2">
         <f t="shared" si="4"/>
         <v>3.3426183844011144</v>
@@ -4717,7 +4742,7 @@
         <f t="shared" si="3"/>
         <v>0.1343</v>
       </c>
-      <c r="E7" s="53"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="2">
         <f t="shared" si="4"/>
         <v>4.2589437819420786</v>
@@ -4786,7 +4811,7 @@
         <f t="shared" si="3"/>
         <v>0.1371</v>
       </c>
-      <c r="E8" s="53"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="2">
         <f t="shared" si="4"/>
         <v>4.8987589810581316</v>
@@ -4855,7 +4880,7 @@
         <f t="shared" si="3"/>
         <v>0.14124999999999999</v>
       </c>
-      <c r="E9" s="53"/>
+      <c r="E9" s="61"/>
       <c r="F9" s="2">
         <f t="shared" si="4"/>
         <v>6.4615384615384617</v>
@@ -4924,7 +4949,7 @@
         <f t="shared" si="3"/>
         <v>0.13900000000000001</v>
       </c>
-      <c r="E10" s="53"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="2">
         <f t="shared" si="4"/>
         <v>5.625</v>
@@ -4993,7 +5018,7 @@
         <f t="shared" si="3"/>
         <v>0.1285</v>
       </c>
-      <c r="E11" s="53"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="2">
         <f t="shared" si="4"/>
         <v>3.0848329048843186</v>
@@ -5062,7 +5087,7 @@
         <f t="shared" si="3"/>
         <v>0.126</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="2">
         <f t="shared" si="4"/>
         <v>2.4725274725274726</v>
@@ -5131,7 +5156,7 @@
         <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
-      <c r="E13" s="54"/>
+      <c r="E13" s="62"/>
       <c r="F13" s="2">
         <f t="shared" si="4"/>
         <v>1.5781167806417673</v>
@@ -5187,15 +5212,15 @@
       <c r="Z13" s="31"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="65"/>
       <c r="J14" s="1" t="s">
         <v>30</v>
       </c>
@@ -5234,8 +5259,12 @@
       <c r="Z14" s="31"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.0499999999999999E-2</v>
+      </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
@@ -5262,15 +5291,15 @@
       <c r="Z15" s="31"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
@@ -5294,27 +5323,27 @@
       <c r="Z16" s="31"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="17">
         <v>69.599999999999994</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48" t="s">
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="55"/>
-      <c r="I17" s="48" t="s">
+      <c r="H17" s="45"/>
+      <c r="I17" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="48" t="s">
+      <c r="J17" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="48" t="s">
+      <c r="K17" s="44" t="s">
         <v>27</v>
       </c>
       <c r="L17" s="24"/>
@@ -5346,17 +5375,17 @@
       <c r="D18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="48"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="44"/>
       <c r="G18" s="11" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
       <c r="L18" s="12"/>
       <c r="M18" s="13" t="s">
         <v>42</v>
@@ -5415,7 +5444,7 @@
         <f>C19/1000</f>
         <v>0.1187</v>
       </c>
-      <c r="E19" s="53"/>
+      <c r="E19" s="61"/>
       <c r="F19" s="2">
         <f>(A19/B19)*10</f>
         <v>6.3578564940962758</v>
@@ -5508,7 +5537,7 @@
         <f t="shared" ref="D20:D28" si="15">C20/1000</f>
         <v>0.12075</v>
       </c>
-      <c r="E20" s="53"/>
+      <c r="E20" s="61"/>
       <c r="F20" s="2">
         <f t="shared" ref="F20:F28" si="16">(A20/B20)*10</f>
         <v>6.878480183426138</v>
@@ -5577,7 +5606,7 @@
         <f t="shared" si="15"/>
         <v>0.12085</v>
       </c>
-      <c r="E21" s="53"/>
+      <c r="E21" s="61"/>
       <c r="F21" s="2">
         <f t="shared" si="16"/>
         <v>6.8945705257110026</v>
@@ -5646,7 +5675,7 @@
         <f t="shared" si="15"/>
         <v>9.0049999999999991E-2</v>
       </c>
-      <c r="E22" s="53"/>
+      <c r="E22" s="61"/>
       <c r="F22" s="2">
         <f t="shared" si="16"/>
         <v>1.6551724137931034</v>
@@ -5715,7 +5744,7 @@
         <f t="shared" si="15"/>
         <v>9.8099999999999993E-2</v>
       </c>
-      <c r="E23" s="53"/>
+      <c r="E23" s="61"/>
       <c r="F23" s="2">
         <f t="shared" si="16"/>
         <v>2.7522935779816518</v>
@@ -5784,7 +5813,7 @@
         <f t="shared" si="15"/>
         <v>0.1031</v>
       </c>
-      <c r="E24" s="53"/>
+      <c r="E24" s="61"/>
       <c r="F24" s="2">
         <f t="shared" si="16"/>
         <v>3.5618878005342838</v>
@@ -5853,7 +5882,7 @@
         <f t="shared" si="15"/>
         <v>0.10735</v>
       </c>
-      <c r="E25" s="53"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="2">
         <f t="shared" si="16"/>
         <v>4.3041606886657107</v>
@@ -5922,7 +5951,7 @@
         <f t="shared" si="15"/>
         <v>0.11284999999999999</v>
       </c>
-      <c r="E26" s="53"/>
+      <c r="E26" s="61"/>
       <c r="F26" s="2">
         <f t="shared" si="16"/>
         <v>5.4037826478534967</v>
@@ -5991,7 +6020,7 @@
         <f t="shared" si="15"/>
         <v>0.11685</v>
       </c>
-      <c r="E27" s="53"/>
+      <c r="E27" s="61"/>
       <c r="F27" s="2">
         <f t="shared" si="16"/>
         <v>6.25</v>
@@ -6060,7 +6089,7 @@
         <f t="shared" si="15"/>
         <v>0.1198</v>
       </c>
-      <c r="E28" s="54"/>
+      <c r="E28" s="62"/>
       <c r="F28" s="2">
         <f t="shared" si="16"/>
         <v>6.6857688634192938</v>
@@ -6116,15 +6145,15 @@
       <c r="Z28" s="31"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="65"/>
       <c r="J29" s="1" t="s">
         <v>30</v>
       </c>
@@ -6168,7 +6197,7 @@
       </c>
     </row>
     <row r="33" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O33" s="42" t="s">
+      <c r="O33" s="50" t="s">
         <v>31</v>
       </c>
       <c r="P33" s="3" t="s">
@@ -6182,7 +6211,7 @@
       </c>
     </row>
     <row r="34" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O34" s="43"/>
+      <c r="O34" s="51"/>
       <c r="P34" s="6" t="s">
         <v>38</v>
       </c>
@@ -6196,7 +6225,7 @@
       </c>
     </row>
     <row r="35" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O35" s="42" t="s">
+      <c r="O35" s="50" t="s">
         <v>32</v>
       </c>
       <c r="P35" s="3" t="s">
@@ -6210,7 +6239,7 @@
       </c>
     </row>
     <row r="36" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O36" s="43"/>
+      <c r="O36" s="51"/>
       <c r="P36" s="6" t="s">
         <v>39</v>
       </c>
@@ -6224,30 +6253,24 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="17">
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="F1:W1"/>
+    <mergeCell ref="M2:W2"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="X1:Y2"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="E18:E28"/>
-    <mergeCell ref="E3:E13"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A14:I14"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="F1:W1"/>
-    <mergeCell ref="M2:W2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="C16:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6256,10 +6279,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5760CFBC-F7CE-47EF-84FD-3DFCEA44E20B}">
-  <dimension ref="C4:J39"/>
+  <dimension ref="B4:K54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6404,35 +6427,308 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F33">
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F34">
         <v>0.441</v>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F35">
         <v>0.45</v>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F36">
         <v>0.439</v>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F37">
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F39">
         <f>AVERAGE(F28:F37)</f>
         <v>0.45339999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="40">
+        <v>3.0499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" t="s">
+        <v>49</v>
+      </c>
+      <c r="K44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D45" s="53">
+        <v>6.3578564940962758</v>
+      </c>
+      <c r="E45" s="54">
+        <f>D45*10^-4</f>
+        <v>6.3578564940962757E-4</v>
+      </c>
+      <c r="F45" s="55">
+        <v>4.9100000000000012E-2</v>
+      </c>
+      <c r="G45">
+        <f>F45*C$43</f>
+        <v>1.4975500000000003E-3</v>
+      </c>
+      <c r="H45">
+        <f>E45/G45</f>
+        <v>0.42455053214225064</v>
+      </c>
+      <c r="I45">
+        <f>SQRT(9.81*F45)</f>
+        <v>0.69402521568023745</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D46" s="53">
+        <v>6.878480183426138</v>
+      </c>
+      <c r="E46" s="54">
+        <f t="shared" ref="E46:E54" si="0">D46*10^-4</f>
+        <v>6.878480183426138E-4</v>
+      </c>
+      <c r="F46" s="55">
+        <v>5.1150000000000008E-2</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ref="G46:G54" si="1">F46*C$43</f>
+        <v>1.5600750000000002E-3</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ref="H46:H54" si="2">E46/G46</f>
+        <v>0.44090701943343347</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ref="I46:I54" si="3">SQRT(9.81*F46)</f>
+        <v>0.70836537182445625</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D47" s="53">
+        <v>6.8945705257110026</v>
+      </c>
+      <c r="E47" s="54">
+        <f t="shared" si="0"/>
+        <v>6.8945705257110034E-4</v>
+      </c>
+      <c r="F47" s="55">
+        <v>5.1249999999999997E-2</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>1.5631249999999998E-3</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>0.44107608321221936</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>0.70905747298790944</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D48" s="53">
+        <v>1.6551724137931034</v>
+      </c>
+      <c r="E48" s="54">
+        <f t="shared" si="0"/>
+        <v>1.6551724137931035E-4</v>
+      </c>
+      <c r="F48" s="55">
+        <v>2.0450000000000003E-2</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>6.237250000000001E-4</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>0.26536893884213447</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>0.44790010046884343</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D49" s="53">
+        <v>2.7522935779816518</v>
+      </c>
+      <c r="E49" s="54">
+        <f t="shared" si="0"/>
+        <v>2.7522935779816516E-4</v>
+      </c>
+      <c r="F49" s="55">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>8.6925000000000001E-4</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>0.31662853931339102</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>0.52875797866320662</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D50" s="53">
+        <v>3.5618878005342838</v>
+      </c>
+      <c r="E50" s="54">
+        <f t="shared" si="0"/>
+        <v>3.5618878005342838E-4</v>
+      </c>
+      <c r="F50" s="55">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>1.0217500000000001E-3</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>0.34860658679072998</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>0.57326695352165558</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D51" s="53">
+        <v>4.3041606886657107</v>
+      </c>
+      <c r="E51" s="54">
+        <f t="shared" si="0"/>
+        <v>4.3041606886657106E-4</v>
+      </c>
+      <c r="F51" s="55">
+        <v>3.7749999999999999E-2</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>1.1513749999999998E-3</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>0.37382787438199644</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>0.60854539682754982</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D52" s="53">
+        <v>5.4037826478534967</v>
+      </c>
+      <c r="E52" s="54">
+        <f t="shared" si="0"/>
+        <v>5.4037826478534967E-4</v>
+      </c>
+      <c r="F52" s="55">
+        <v>4.3249999999999997E-2</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>1.3191249999999998E-3</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>0.40964902096871014</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>0.65136971068664229</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D53" s="53">
+        <v>6.25</v>
+      </c>
+      <c r="E53" s="54">
+        <f t="shared" si="0"/>
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="F53" s="55">
+        <v>4.725E-2</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>1.4411249999999999E-3</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>0.43368895827912224</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>0.68082486734842462</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D54" s="53">
+        <v>6.6857688634192938</v>
+      </c>
+      <c r="E54" s="54">
+        <f t="shared" si="0"/>
+        <v>6.6857688634192937E-4</v>
+      </c>
+      <c r="F54" s="55">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>1.5311000000000001E-3</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>0.43666441534970241</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>0.70175636797965724</v>
       </c>
     </row>
   </sheetData>
